--- a/2020/SKP Alfian.xlsx
+++ b/2020/SKP Alfian.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22827"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PUSTIPD\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\dupak\2020\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F30ED1A-354A-41D7-B229-D3CB98E47376}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C78175E-1F48-4FB6-B9AF-210A64E44418}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="364" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="364" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SKP" sheetId="1" r:id="rId1"/>
@@ -1650,312 +1650,6 @@
     <xf numFmtId="164" fontId="4" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="18" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="18" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1977,8 +1671,61 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" quotePrefix="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -1989,12 +1736,6 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2003,23 +1744,282 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="18" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="18" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2420,8 +2420,8 @@
   </sheetPr>
   <dimension ref="A2:R50"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12:I21"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19:E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -2443,320 +2443,320 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:18" ht="15.75">
-      <c r="B2" s="119" t="s">
+      <c r="B2" s="134" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="119"/>
-      <c r="D2" s="119"/>
-      <c r="E2" s="119"/>
-      <c r="F2" s="119"/>
-      <c r="G2" s="119"/>
-      <c r="H2" s="119"/>
-      <c r="I2" s="119"/>
-      <c r="J2" s="119"/>
-      <c r="K2" s="119"/>
-      <c r="L2" s="119"/>
+      <c r="C2" s="134"/>
+      <c r="D2" s="134"/>
+      <c r="E2" s="134"/>
+      <c r="F2" s="134"/>
+      <c r="G2" s="134"/>
+      <c r="H2" s="134"/>
+      <c r="I2" s="134"/>
+      <c r="J2" s="134"/>
+      <c r="K2" s="134"/>
+      <c r="L2" s="134"/>
     </row>
     <row r="3" spans="2:18" ht="15.75">
-      <c r="B3" s="120" t="s">
+      <c r="B3" s="135" t="s">
         <v>47</v>
       </c>
-      <c r="C3" s="120"/>
-      <c r="D3" s="120"/>
-      <c r="E3" s="120"/>
-      <c r="F3" s="120"/>
-      <c r="G3" s="120"/>
-      <c r="H3" s="120"/>
-      <c r="I3" s="120"/>
-      <c r="J3" s="120"/>
-      <c r="K3" s="120"/>
-      <c r="L3" s="120"/>
+      <c r="C3" s="135"/>
+      <c r="D3" s="135"/>
+      <c r="E3" s="135"/>
+      <c r="F3" s="135"/>
+      <c r="G3" s="135"/>
+      <c r="H3" s="135"/>
+      <c r="I3" s="135"/>
+      <c r="J3" s="135"/>
+      <c r="K3" s="135"/>
+      <c r="L3" s="135"/>
     </row>
     <row r="4" spans="2:18">
-      <c r="B4" s="235" t="s">
+      <c r="B4" s="119" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="236" t="s">
+      <c r="C4" s="133" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="236"/>
-      <c r="E4" s="236"/>
-      <c r="F4" s="235" t="s">
+      <c r="D4" s="133"/>
+      <c r="E4" s="133"/>
+      <c r="F4" s="119" t="s">
         <v>1</v>
       </c>
-      <c r="G4" s="236" t="s">
+      <c r="G4" s="133" t="s">
         <v>3</v>
       </c>
-      <c r="H4" s="236"/>
-      <c r="I4" s="236"/>
-      <c r="J4" s="236"/>
-      <c r="K4" s="236"/>
-      <c r="L4" s="236"/>
+      <c r="H4" s="133"/>
+      <c r="I4" s="133"/>
+      <c r="J4" s="133"/>
+      <c r="K4" s="133"/>
+      <c r="L4" s="133"/>
     </row>
     <row r="5" spans="2:18">
-      <c r="B5" s="235">
+      <c r="B5" s="119">
         <v>1</v>
       </c>
-      <c r="C5" s="235" t="s">
+      <c r="C5" s="119" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="220" t="s">
+      <c r="D5" s="132" t="s">
         <v>109</v>
       </c>
-      <c r="E5" s="220"/>
-      <c r="F5" s="235">
+      <c r="E5" s="132"/>
+      <c r="F5" s="119">
         <v>1</v>
       </c>
-      <c r="G5" s="236" t="s">
+      <c r="G5" s="133" t="s">
         <v>4</v>
       </c>
-      <c r="H5" s="236"/>
-      <c r="I5" s="220" t="s">
+      <c r="H5" s="133"/>
+      <c r="I5" s="132" t="s">
         <v>92</v>
       </c>
-      <c r="J5" s="220"/>
-      <c r="K5" s="220"/>
-      <c r="L5" s="220"/>
+      <c r="J5" s="132"/>
+      <c r="K5" s="132"/>
+      <c r="L5" s="132"/>
     </row>
     <row r="6" spans="2:18">
-      <c r="B6" s="235">
+      <c r="B6" s="119">
         <v>2</v>
       </c>
-      <c r="C6" s="235" t="s">
+      <c r="C6" s="119" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="221" t="s">
+      <c r="D6" s="131" t="s">
         <v>108</v>
       </c>
-      <c r="E6" s="220"/>
-      <c r="F6" s="235">
+      <c r="E6" s="132"/>
+      <c r="F6" s="119">
         <v>2</v>
       </c>
-      <c r="G6" s="236" t="s">
+      <c r="G6" s="133" t="s">
         <v>5</v>
       </c>
-      <c r="H6" s="236"/>
-      <c r="I6" s="221" t="s">
+      <c r="H6" s="133"/>
+      <c r="I6" s="131" t="s">
         <v>96</v>
       </c>
-      <c r="J6" s="221"/>
-      <c r="K6" s="221"/>
-      <c r="L6" s="221"/>
+      <c r="J6" s="131"/>
+      <c r="K6" s="131"/>
+      <c r="L6" s="131"/>
     </row>
     <row r="7" spans="2:18">
-      <c r="B7" s="235">
+      <c r="B7" s="119">
         <v>3</v>
       </c>
-      <c r="C7" s="235" t="s">
+      <c r="C7" s="119" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="220" t="s">
+      <c r="D7" s="132" t="s">
         <v>98</v>
       </c>
-      <c r="E7" s="220"/>
-      <c r="F7" s="235">
+      <c r="E7" s="132"/>
+      <c r="F7" s="119">
         <v>3</v>
       </c>
-      <c r="G7" s="236" t="s">
+      <c r="G7" s="133" t="s">
         <v>8</v>
       </c>
-      <c r="H7" s="236"/>
-      <c r="I7" s="220" t="s">
+      <c r="H7" s="133"/>
+      <c r="I7" s="132" t="s">
         <v>93</v>
       </c>
-      <c r="J7" s="220"/>
-      <c r="K7" s="220"/>
-      <c r="L7" s="220"/>
+      <c r="J7" s="132"/>
+      <c r="K7" s="132"/>
+      <c r="L7" s="132"/>
     </row>
     <row r="8" spans="2:18">
-      <c r="B8" s="235">
+      <c r="B8" s="119">
         <v>4</v>
       </c>
-      <c r="C8" s="235" t="s">
+      <c r="C8" s="119" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="220" t="s">
+      <c r="D8" s="132" t="s">
         <v>97</v>
       </c>
-      <c r="E8" s="220"/>
-      <c r="F8" s="235">
+      <c r="E8" s="132"/>
+      <c r="F8" s="119">
         <v>4</v>
       </c>
-      <c r="G8" s="236" t="s">
+      <c r="G8" s="133" t="s">
         <v>6</v>
       </c>
-      <c r="H8" s="236"/>
-      <c r="I8" s="220" t="s">
+      <c r="H8" s="133"/>
+      <c r="I8" s="132" t="s">
         <v>94</v>
       </c>
-      <c r="J8" s="220"/>
-      <c r="K8" s="220"/>
-      <c r="L8" s="220"/>
+      <c r="J8" s="132"/>
+      <c r="K8" s="132"/>
+      <c r="L8" s="132"/>
     </row>
     <row r="9" spans="2:18">
-      <c r="B9" s="235">
+      <c r="B9" s="119">
         <v>5</v>
       </c>
-      <c r="C9" s="235" t="s">
+      <c r="C9" s="119" t="s">
         <v>7</v>
       </c>
-      <c r="D9" s="220" t="s">
+      <c r="D9" s="132" t="s">
         <v>95</v>
       </c>
-      <c r="E9" s="220"/>
-      <c r="F9" s="235">
+      <c r="E9" s="132"/>
+      <c r="F9" s="119">
         <v>5</v>
       </c>
-      <c r="G9" s="236" t="s">
+      <c r="G9" s="133" t="s">
         <v>7</v>
       </c>
-      <c r="H9" s="236"/>
-      <c r="I9" s="220" t="s">
+      <c r="H9" s="133"/>
+      <c r="I9" s="132" t="s">
         <v>95</v>
       </c>
-      <c r="J9" s="220"/>
-      <c r="K9" s="220"/>
-      <c r="L9" s="220"/>
+      <c r="J9" s="132"/>
+      <c r="K9" s="132"/>
+      <c r="L9" s="132"/>
     </row>
     <row r="10" spans="2:18" ht="21" customHeight="1">
-      <c r="B10" s="233" t="s">
+      <c r="B10" s="124" t="s">
         <v>1</v>
       </c>
-      <c r="C10" s="233" t="s">
+      <c r="C10" s="124" t="s">
         <v>29</v>
       </c>
-      <c r="D10" s="233"/>
-      <c r="E10" s="233"/>
-      <c r="F10" s="233" t="s">
+      <c r="D10" s="124"/>
+      <c r="E10" s="124"/>
+      <c r="F10" s="124" t="s">
         <v>23</v>
       </c>
-      <c r="G10" s="233" t="s">
+      <c r="G10" s="124" t="s">
         <v>9</v>
       </c>
-      <c r="H10" s="233"/>
-      <c r="I10" s="233"/>
-      <c r="J10" s="233"/>
-      <c r="K10" s="233"/>
-      <c r="L10" s="233"/>
+      <c r="H10" s="124"/>
+      <c r="I10" s="124"/>
+      <c r="J10" s="124"/>
+      <c r="K10" s="124"/>
+      <c r="L10" s="124"/>
     </row>
     <row r="11" spans="2:18" ht="22.5" customHeight="1">
-      <c r="B11" s="233"/>
-      <c r="C11" s="233"/>
-      <c r="D11" s="233"/>
-      <c r="E11" s="233"/>
-      <c r="F11" s="233"/>
-      <c r="G11" s="233" t="s">
+      <c r="B11" s="124"/>
+      <c r="C11" s="124"/>
+      <c r="D11" s="124"/>
+      <c r="E11" s="124"/>
+      <c r="F11" s="124"/>
+      <c r="G11" s="124" t="s">
         <v>26</v>
       </c>
-      <c r="H11" s="233"/>
-      <c r="I11" s="234" t="s">
+      <c r="H11" s="124"/>
+      <c r="I11" s="118" t="s">
         <v>10</v>
       </c>
-      <c r="J11" s="233" t="s">
+      <c r="J11" s="124" t="s">
         <v>11</v>
       </c>
-      <c r="K11" s="233"/>
-      <c r="L11" s="234" t="s">
+      <c r="K11" s="124"/>
+      <c r="L11" s="118" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="12" spans="2:18" s="13" customFormat="1" ht="30" customHeight="1">
-      <c r="B12" s="211">
+      <c r="B12" s="109">
         <v>1</v>
       </c>
-      <c r="C12" s="230" t="s">
+      <c r="C12" s="120" t="s">
         <v>99</v>
       </c>
-      <c r="D12" s="231"/>
-      <c r="E12" s="232"/>
-      <c r="F12" s="212">
+      <c r="D12" s="121"/>
+      <c r="E12" s="122"/>
+      <c r="F12" s="110">
         <f>0.58*G12</f>
         <v>2.9</v>
       </c>
-      <c r="G12" s="213">
+      <c r="G12" s="111">
         <v>5</v>
       </c>
-      <c r="H12" s="214" t="s">
+      <c r="H12" s="112" t="s">
         <v>128</v>
       </c>
-      <c r="I12" s="211">
+      <c r="I12" s="109">
         <v>100</v>
       </c>
-      <c r="J12" s="214">
+      <c r="J12" s="112">
         <v>10</v>
       </c>
-      <c r="K12" s="211" t="s">
+      <c r="K12" s="109" t="s">
         <v>88</v>
       </c>
-      <c r="L12" s="215" t="s">
+      <c r="L12" s="113" t="s">
         <v>89</v>
       </c>
-      <c r="O12" s="118"/>
-      <c r="P12" s="118"/>
-      <c r="Q12" s="118"/>
-      <c r="R12" s="118"/>
+      <c r="O12" s="123"/>
+      <c r="P12" s="123"/>
+      <c r="Q12" s="123"/>
+      <c r="R12" s="123"/>
     </row>
     <row r="13" spans="2:18" s="13" customFormat="1" ht="30" customHeight="1">
-      <c r="B13" s="211">
+      <c r="B13" s="109">
         <v>2</v>
       </c>
-      <c r="C13" s="230" t="s">
+      <c r="C13" s="120" t="s">
         <v>100</v>
       </c>
-      <c r="D13" s="231"/>
-      <c r="E13" s="232"/>
-      <c r="F13" s="216">
+      <c r="D13" s="121"/>
+      <c r="E13" s="122"/>
+      <c r="F13" s="114">
         <f xml:space="preserve"> 0.138*G13</f>
         <v>0.69000000000000006</v>
       </c>
-      <c r="G13" s="213">
+      <c r="G13" s="111">
         <v>5</v>
       </c>
-      <c r="H13" s="214" t="s">
+      <c r="H13" s="112" t="s">
         <v>128</v>
       </c>
-      <c r="I13" s="211">
+      <c r="I13" s="109">
         <v>100</v>
       </c>
-      <c r="J13" s="214">
+      <c r="J13" s="112">
         <v>10</v>
       </c>
-      <c r="K13" s="211" t="s">
+      <c r="K13" s="109" t="s">
         <v>88</v>
       </c>
-      <c r="L13" s="215" t="s">
+      <c r="L13" s="113" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="14" spans="2:18" s="13" customFormat="1" ht="30" customHeight="1">
-      <c r="B14" s="211">
+      <c r="B14" s="109">
         <v>3</v>
       </c>
-      <c r="C14" s="230" t="s">
+      <c r="C14" s="120" t="s">
         <v>101</v>
       </c>
-      <c r="D14" s="231"/>
-      <c r="E14" s="232"/>
-      <c r="F14" s="216">
+      <c r="D14" s="121"/>
+      <c r="E14" s="122"/>
+      <c r="F14" s="114">
         <f>0.652*G14</f>
         <v>5.2160000000000002</v>
       </c>
-      <c r="G14" s="213">
+      <c r="G14" s="111">
         <v>8</v>
       </c>
-      <c r="H14" s="214" t="s">
+      <c r="H14" s="112" t="s">
         <v>128</v>
       </c>
-      <c r="I14" s="211">
+      <c r="I14" s="109">
         <v>100</v>
       </c>
-      <c r="J14" s="214">
+      <c r="J14" s="112">
         <v>10</v>
       </c>
-      <c r="K14" s="211" t="s">
+      <c r="K14" s="109" t="s">
         <v>88</v>
       </c>
-      <c r="L14" s="215" t="s">
+      <c r="L14" s="113" t="s">
         <v>89</v>
       </c>
       <c r="O14" s="13" t="s">
@@ -2764,277 +2764,277 @@
       </c>
     </row>
     <row r="15" spans="2:18" s="13" customFormat="1" ht="30" customHeight="1">
-      <c r="B15" s="211">
+      <c r="B15" s="109">
         <v>4</v>
       </c>
-      <c r="C15" s="230" t="s">
+      <c r="C15" s="120" t="s">
         <v>102</v>
       </c>
-      <c r="D15" s="231"/>
-      <c r="E15" s="232"/>
-      <c r="F15" s="216">
+      <c r="D15" s="121"/>
+      <c r="E15" s="122"/>
+      <c r="F15" s="114">
         <f>0.305*G15</f>
         <v>7.625</v>
       </c>
-      <c r="G15" s="213">
+      <c r="G15" s="111">
         <v>25</v>
       </c>
-      <c r="H15" s="214" t="s">
+      <c r="H15" s="112" t="s">
         <v>128</v>
       </c>
-      <c r="I15" s="211">
+      <c r="I15" s="109">
         <v>100</v>
       </c>
-      <c r="J15" s="214">
+      <c r="J15" s="112">
         <v>10</v>
       </c>
-      <c r="K15" s="211" t="s">
+      <c r="K15" s="109" t="s">
         <v>88</v>
       </c>
-      <c r="L15" s="215" t="s">
+      <c r="L15" s="113" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="16" spans="2:18" s="13" customFormat="1" ht="30" customHeight="1">
-      <c r="B16" s="211">
+      <c r="B16" s="109">
         <v>5</v>
       </c>
-      <c r="C16" s="230" t="s">
+      <c r="C16" s="120" t="s">
         <v>103</v>
       </c>
-      <c r="D16" s="231"/>
-      <c r="E16" s="232"/>
-      <c r="F16" s="216">
+      <c r="D16" s="121"/>
+      <c r="E16" s="122"/>
+      <c r="F16" s="114">
         <f>0.155*G16</f>
         <v>5.58</v>
       </c>
-      <c r="G16" s="213">
+      <c r="G16" s="111">
         <v>36</v>
       </c>
-      <c r="H16" s="214" t="s">
+      <c r="H16" s="112" t="s">
         <v>128</v>
       </c>
-      <c r="I16" s="211">
+      <c r="I16" s="109">
         <v>100</v>
       </c>
-      <c r="J16" s="214">
+      <c r="J16" s="112">
         <v>10</v>
       </c>
-      <c r="K16" s="211" t="s">
+      <c r="K16" s="109" t="s">
         <v>88</v>
       </c>
-      <c r="L16" s="215" t="s">
+      <c r="L16" s="113" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="17" spans="2:12" s="13" customFormat="1" ht="30" customHeight="1">
-      <c r="B17" s="211">
+      <c r="B17" s="109">
         <v>6</v>
       </c>
-      <c r="C17" s="230" t="s">
+      <c r="C17" s="120" t="s">
         <v>104</v>
       </c>
-      <c r="D17" s="231"/>
-      <c r="E17" s="232"/>
-      <c r="F17" s="217">
+      <c r="D17" s="121"/>
+      <c r="E17" s="122"/>
+      <c r="F17" s="115">
         <f>2.515*G17</f>
         <v>15.09</v>
       </c>
-      <c r="G17" s="213">
+      <c r="G17" s="111">
         <v>6</v>
       </c>
-      <c r="H17" s="214" t="s">
+      <c r="H17" s="112" t="s">
         <v>128</v>
       </c>
-      <c r="I17" s="211">
+      <c r="I17" s="109">
         <v>100</v>
       </c>
-      <c r="J17" s="214">
+      <c r="J17" s="112">
         <v>10</v>
       </c>
-      <c r="K17" s="211" t="s">
+      <c r="K17" s="109" t="s">
         <v>88</v>
       </c>
-      <c r="L17" s="215" t="s">
+      <c r="L17" s="113" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="18" spans="2:12" s="13" customFormat="1" ht="30" customHeight="1">
-      <c r="B18" s="211">
+      <c r="B18" s="109">
         <v>7</v>
       </c>
-      <c r="C18" s="230" t="s">
+      <c r="C18" s="120" t="s">
         <v>105</v>
       </c>
-      <c r="D18" s="231"/>
-      <c r="E18" s="232"/>
-      <c r="F18" s="216">
+      <c r="D18" s="121"/>
+      <c r="E18" s="122"/>
+      <c r="F18" s="114">
         <f>G18*1.349</f>
         <v>8.0939999999999994</v>
       </c>
-      <c r="G18" s="213">
+      <c r="G18" s="111">
         <v>6</v>
       </c>
-      <c r="H18" s="214" t="s">
+      <c r="H18" s="112" t="s">
         <v>128</v>
       </c>
-      <c r="I18" s="211">
+      <c r="I18" s="109">
         <v>100</v>
       </c>
-      <c r="J18" s="214">
+      <c r="J18" s="112">
         <v>10</v>
       </c>
-      <c r="K18" s="211" t="s">
+      <c r="K18" s="109" t="s">
         <v>88</v>
       </c>
-      <c r="L18" s="215" t="s">
+      <c r="L18" s="113" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="19" spans="2:12" s="13" customFormat="1" ht="30" customHeight="1">
-      <c r="B19" s="211">
+      <c r="B19" s="109">
         <v>8</v>
       </c>
-      <c r="C19" s="230" t="s">
+      <c r="C19" s="120" t="s">
         <v>106</v>
       </c>
-      <c r="D19" s="231"/>
-      <c r="E19" s="232"/>
-      <c r="F19" s="216">
+      <c r="D19" s="121"/>
+      <c r="E19" s="122"/>
+      <c r="F19" s="114">
         <f>0.348*G19</f>
         <v>0.34799999999999998</v>
       </c>
-      <c r="G19" s="213">
+      <c r="G19" s="111">
         <v>1</v>
       </c>
-      <c r="H19" s="214" t="s">
+      <c r="H19" s="112" t="s">
         <v>128</v>
       </c>
-      <c r="I19" s="211">
+      <c r="I19" s="109">
         <v>100</v>
       </c>
-      <c r="J19" s="214">
+      <c r="J19" s="112">
         <v>10</v>
       </c>
-      <c r="K19" s="211" t="s">
+      <c r="K19" s="109" t="s">
         <v>88</v>
       </c>
-      <c r="L19" s="215" t="s">
+      <c r="L19" s="113" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="20" spans="2:12" s="13" customFormat="1" ht="30" customHeight="1">
-      <c r="B20" s="211">
+      <c r="B20" s="109">
         <v>10</v>
       </c>
-      <c r="C20" s="230" t="s">
+      <c r="C20" s="120" t="s">
         <v>107</v>
       </c>
-      <c r="D20" s="231"/>
-      <c r="E20" s="232"/>
-      <c r="F20" s="216">
+      <c r="D20" s="121"/>
+      <c r="E20" s="122"/>
+      <c r="F20" s="114">
         <f>0.686*G20</f>
         <v>3.43</v>
       </c>
-      <c r="G20" s="213">
+      <c r="G20" s="111">
         <v>5</v>
       </c>
-      <c r="H20" s="214" t="s">
+      <c r="H20" s="112" t="s">
         <v>128</v>
       </c>
-      <c r="I20" s="211">
+      <c r="I20" s="109">
         <v>100</v>
       </c>
-      <c r="J20" s="214">
+      <c r="J20" s="112">
         <v>10</v>
       </c>
-      <c r="K20" s="211" t="s">
+      <c r="K20" s="109" t="s">
         <v>88</v>
       </c>
-      <c r="L20" s="215" t="s">
+      <c r="L20" s="113" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="21" spans="2:12" s="13" customFormat="1" ht="30" customHeight="1">
-      <c r="B21" s="211">
+      <c r="B21" s="109">
         <v>12</v>
       </c>
-      <c r="C21" s="225" t="s">
+      <c r="C21" s="137" t="s">
         <v>126</v>
       </c>
-      <c r="D21" s="112"/>
-      <c r="E21" s="226"/>
-      <c r="F21" s="218">
+      <c r="D21" s="130"/>
+      <c r="E21" s="138"/>
+      <c r="F21" s="116">
         <f>0.96*G21</f>
         <v>4.8</v>
       </c>
-      <c r="G21" s="213">
+      <c r="G21" s="111">
         <v>5</v>
       </c>
-      <c r="H21" s="214" t="s">
+      <c r="H21" s="112" t="s">
         <v>128</v>
       </c>
-      <c r="I21" s="211">
+      <c r="I21" s="109">
         <v>100</v>
       </c>
-      <c r="J21" s="214">
+      <c r="J21" s="112">
         <v>10</v>
       </c>
-      <c r="K21" s="211" t="s">
+      <c r="K21" s="109" t="s">
         <v>127</v>
       </c>
-      <c r="L21" s="215" t="s">
+      <c r="L21" s="113" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="22" spans="2:12" s="13" customFormat="1" ht="30" customHeight="1">
-      <c r="B22" s="211">
+      <c r="B22" s="109">
         <v>13</v>
       </c>
-      <c r="C22" s="222"/>
-      <c r="D22" s="223"/>
-      <c r="E22" s="224"/>
-      <c r="F22" s="218"/>
-      <c r="G22" s="219"/>
-      <c r="H22" s="214"/>
-      <c r="I22" s="211"/>
-      <c r="J22" s="214"/>
-      <c r="K22" s="211"/>
-      <c r="L22" s="215" t="s">
+      <c r="C22" s="139"/>
+      <c r="D22" s="140"/>
+      <c r="E22" s="141"/>
+      <c r="F22" s="116"/>
+      <c r="G22" s="117"/>
+      <c r="H22" s="112"/>
+      <c r="I22" s="109"/>
+      <c r="J22" s="112"/>
+      <c r="K22" s="109"/>
+      <c r="L22" s="113" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="23" spans="2:12" s="13" customFormat="1" ht="30" customHeight="1">
-      <c r="B23" s="211">
+      <c r="B23" s="109">
         <v>14</v>
       </c>
-      <c r="C23" s="222"/>
-      <c r="D23" s="223"/>
-      <c r="E23" s="224"/>
-      <c r="F23" s="218"/>
-      <c r="G23" s="219"/>
-      <c r="H23" s="214"/>
-      <c r="I23" s="211"/>
-      <c r="J23" s="214"/>
-      <c r="K23" s="211"/>
-      <c r="L23" s="215" t="s">
+      <c r="C23" s="139"/>
+      <c r="D23" s="140"/>
+      <c r="E23" s="141"/>
+      <c r="F23" s="116"/>
+      <c r="G23" s="117"/>
+      <c r="H23" s="112"/>
+      <c r="I23" s="109"/>
+      <c r="J23" s="112"/>
+      <c r="K23" s="109"/>
+      <c r="L23" s="113" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="24" spans="2:12" s="13" customFormat="1" ht="30" customHeight="1">
-      <c r="B24" s="211">
+      <c r="B24" s="109">
         <v>15</v>
       </c>
-      <c r="C24" s="227"/>
-      <c r="D24" s="228"/>
-      <c r="E24" s="229"/>
-      <c r="F24" s="218"/>
-      <c r="G24" s="219"/>
-      <c r="H24" s="214"/>
-      <c r="I24" s="211"/>
-      <c r="J24" s="214"/>
-      <c r="K24" s="211"/>
-      <c r="L24" s="215" t="s">
+      <c r="C24" s="142"/>
+      <c r="D24" s="143"/>
+      <c r="E24" s="144"/>
+      <c r="F24" s="116"/>
+      <c r="G24" s="117"/>
+      <c r="H24" s="112"/>
+      <c r="I24" s="109"/>
+      <c r="J24" s="112"/>
+      <c r="K24" s="109"/>
+      <c r="L24" s="113" t="s">
         <v>89</v>
       </c>
     </row>
@@ -3042,8 +3042,8 @@
       <c r="B25" s="16">
         <v>16</v>
       </c>
-      <c r="C25" s="111"/>
-      <c r="D25" s="112"/>
+      <c r="C25" s="129"/>
+      <c r="D25" s="130"/>
       <c r="E25" s="99"/>
       <c r="F25" s="98"/>
       <c r="G25" s="100">
@@ -3069,8 +3069,8 @@
       <c r="B26" s="16">
         <v>17</v>
       </c>
-      <c r="C26" s="111"/>
-      <c r="D26" s="112"/>
+      <c r="C26" s="129"/>
+      <c r="D26" s="130"/>
       <c r="E26" s="21"/>
       <c r="F26" s="16"/>
       <c r="G26" s="100">
@@ -3096,8 +3096,8 @@
       <c r="B27" s="16">
         <v>18</v>
       </c>
-      <c r="C27" s="111"/>
-      <c r="D27" s="112"/>
+      <c r="C27" s="129"/>
+      <c r="D27" s="130"/>
       <c r="E27" s="99"/>
       <c r="F27" s="98"/>
       <c r="G27" s="100">
@@ -3123,8 +3123,8 @@
       <c r="B28" s="19">
         <v>19</v>
       </c>
-      <c r="C28" s="123"/>
-      <c r="D28" s="124"/>
+      <c r="C28" s="127"/>
+      <c r="D28" s="128"/>
       <c r="E28" s="24"/>
       <c r="F28" s="19"/>
       <c r="G28" s="104">
@@ -3148,30 +3148,30 @@
     </row>
     <row r="29" spans="2:12" ht="6.75" customHeight="1"/>
     <row r="30" spans="2:12">
-      <c r="H30" s="114" t="s">
+      <c r="H30" s="136" t="s">
         <v>115</v>
       </c>
-      <c r="I30" s="110"/>
-      <c r="J30" s="110"/>
-      <c r="K30" s="110"/>
-      <c r="L30" s="110"/>
+      <c r="I30" s="126"/>
+      <c r="J30" s="126"/>
+      <c r="K30" s="126"/>
+      <c r="L30" s="126"/>
     </row>
     <row r="31" spans="2:12">
-      <c r="B31" s="110" t="s">
+      <c r="B31" s="126" t="s">
         <v>28</v>
       </c>
-      <c r="C31" s="110"/>
-      <c r="D31" s="110"/>
-      <c r="E31" s="110"/>
-      <c r="F31" s="110"/>
+      <c r="C31" s="126"/>
+      <c r="D31" s="126"/>
+      <c r="E31" s="126"/>
+      <c r="F31" s="126"/>
       <c r="G31" s="11"/>
-      <c r="H31" s="110" t="s">
+      <c r="H31" s="126" t="s">
         <v>13</v>
       </c>
-      <c r="I31" s="110"/>
-      <c r="J31" s="110"/>
-      <c r="K31" s="110"/>
-      <c r="L31" s="110"/>
+      <c r="I31" s="126"/>
+      <c r="J31" s="126"/>
+      <c r="K31" s="126"/>
+      <c r="L31" s="126"/>
     </row>
     <row r="32" spans="2:12">
       <c r="B32" s="11"/>
@@ -3187,68 +3187,68 @@
       <c r="L32" s="11"/>
     </row>
     <row r="35" spans="1:12">
-      <c r="B35" s="113" t="str">
+      <c r="B35" s="125" t="str">
         <f>D5</f>
         <v>Dra. Imas Maesaroh, Dip.IM-Lib., M.Lib., Ph.D.</v>
       </c>
-      <c r="C35" s="113"/>
-      <c r="D35" s="113"/>
-      <c r="E35" s="113"/>
-      <c r="F35" s="113"/>
+      <c r="C35" s="125"/>
+      <c r="D35" s="125"/>
+      <c r="E35" s="125"/>
+      <c r="F35" s="125"/>
       <c r="G35" s="11"/>
-      <c r="H35" s="113" t="str">
+      <c r="H35" s="125" t="str">
         <f>I5</f>
         <v>Alfian Naufal ,S.Kom</v>
       </c>
-      <c r="I35" s="113"/>
-      <c r="J35" s="113"/>
-      <c r="K35" s="113"/>
-      <c r="L35" s="113"/>
+      <c r="I35" s="125"/>
+      <c r="J35" s="125"/>
+      <c r="K35" s="125"/>
+      <c r="L35" s="125"/>
     </row>
     <row r="36" spans="1:12">
-      <c r="B36" s="110" t="str">
+      <c r="B36" s="126" t="str">
         <f>D6</f>
         <v>196605141992032001</v>
       </c>
-      <c r="C36" s="110"/>
-      <c r="D36" s="110"/>
-      <c r="E36" s="110"/>
-      <c r="F36" s="110"/>
-      <c r="H36" s="110" t="str">
+      <c r="C36" s="126"/>
+      <c r="D36" s="126"/>
+      <c r="E36" s="126"/>
+      <c r="F36" s="126"/>
+      <c r="H36" s="126" t="str">
         <f>I6</f>
         <v>198506072019031011</v>
       </c>
-      <c r="I36" s="110"/>
-      <c r="J36" s="110"/>
-      <c r="K36" s="110"/>
-      <c r="L36" s="110"/>
+      <c r="I36" s="126"/>
+      <c r="J36" s="126"/>
+      <c r="K36" s="126"/>
+      <c r="L36" s="126"/>
     </row>
     <row r="38" spans="1:12">
-      <c r="A38" s="109" t="s">
+      <c r="A38" s="145" t="s">
         <v>24</v>
       </c>
-      <c r="B38" s="109"/>
-      <c r="C38" s="109"/>
-      <c r="D38" s="109"/>
-      <c r="E38" s="109"/>
+      <c r="B38" s="145"/>
+      <c r="C38" s="145"/>
+      <c r="D38" s="145"/>
+      <c r="E38" s="145"/>
       <c r="F38" s="101"/>
     </row>
     <row r="39" spans="1:12">
-      <c r="A39" s="109" t="s">
+      <c r="A39" s="145" t="s">
         <v>25</v>
       </c>
-      <c r="B39" s="109"/>
-      <c r="C39" s="109"/>
-      <c r="D39" s="109"/>
-      <c r="E39" s="109"/>
+      <c r="B39" s="145"/>
+      <c r="C39" s="145"/>
+      <c r="D39" s="145"/>
+      <c r="E39" s="145"/>
       <c r="F39" s="101"/>
     </row>
     <row r="40" spans="1:12">
-      <c r="A40" s="110"/>
-      <c r="B40" s="110"/>
-      <c r="C40" s="110"/>
-      <c r="D40" s="110"/>
-      <c r="E40" s="110"/>
+      <c r="A40" s="126"/>
+      <c r="B40" s="126"/>
+      <c r="C40" s="126"/>
+      <c r="D40" s="126"/>
+      <c r="E40" s="126"/>
       <c r="F40" s="102"/>
     </row>
     <row r="47" spans="1:12">
@@ -3305,11 +3305,38 @@
     </row>
   </sheetData>
   <mergeCells count="53">
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="A39:E39"/>
+    <mergeCell ref="A40:E40"/>
+    <mergeCell ref="A38:E38"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="C18:E18"/>
+    <mergeCell ref="C19:E19"/>
+    <mergeCell ref="H30:L30"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C20:E20"/>
+    <mergeCell ref="C21:E21"/>
+    <mergeCell ref="C22:E22"/>
+    <mergeCell ref="C23:E23"/>
+    <mergeCell ref="C24:E24"/>
+    <mergeCell ref="I8:L8"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="I9:L9"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="B2:L2"/>
+    <mergeCell ref="B3:L3"/>
+    <mergeCell ref="I5:L5"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="G4:L4"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="I6:L6"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="I7:L7"/>
     <mergeCell ref="O12:R12"/>
     <mergeCell ref="B10:B11"/>
     <mergeCell ref="B35:F35"/>
@@ -3320,44 +3347,17 @@
     <mergeCell ref="C26:D26"/>
     <mergeCell ref="J11:K11"/>
     <mergeCell ref="F10:F11"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="I6:L6"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="I7:L7"/>
-    <mergeCell ref="B2:L2"/>
-    <mergeCell ref="B3:L3"/>
-    <mergeCell ref="I5:L5"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="G4:L4"/>
     <mergeCell ref="G10:L10"/>
     <mergeCell ref="C10:E11"/>
-    <mergeCell ref="I8:L8"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="I9:L9"/>
     <mergeCell ref="G11:H11"/>
-    <mergeCell ref="G9:H9"/>
     <mergeCell ref="H35:L35"/>
     <mergeCell ref="H36:L36"/>
     <mergeCell ref="H31:L31"/>
-    <mergeCell ref="H30:L30"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C20:E20"/>
-    <mergeCell ref="C21:E21"/>
-    <mergeCell ref="C22:E22"/>
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="C24:E24"/>
-    <mergeCell ref="A39:E39"/>
-    <mergeCell ref="A40:E40"/>
-    <mergeCell ref="A38:E38"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="C19:E19"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="C16:E16"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.74803149606299202" right="0.52" top="0.66929133858267698" bottom="0.47244094488188998" header="0.511811023622047" footer="0.27559055118110198"/>
@@ -3371,7 +3371,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AP40"/>
+  <dimension ref="A1:AO40"/>
   <sheetViews>
     <sheetView topLeftCell="A5" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="B35" sqref="B35"/>
@@ -3413,67 +3413,67 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:41" ht="15.75">
-      <c r="A1" s="119" t="s">
+      <c r="A1" s="134" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="119"/>
-      <c r="C1" s="119"/>
-      <c r="D1" s="119"/>
-      <c r="E1" s="119"/>
-      <c r="F1" s="119"/>
-      <c r="G1" s="119"/>
-      <c r="H1" s="119"/>
-      <c r="I1" s="119"/>
-      <c r="J1" s="119"/>
-      <c r="K1" s="119"/>
-      <c r="L1" s="119"/>
-      <c r="M1" s="119"/>
-      <c r="N1" s="119"/>
-      <c r="O1" s="119"/>
-      <c r="P1" s="119"/>
-      <c r="Q1" s="119"/>
-      <c r="R1" s="119"/>
+      <c r="B1" s="134"/>
+      <c r="C1" s="134"/>
+      <c r="D1" s="134"/>
+      <c r="E1" s="134"/>
+      <c r="F1" s="134"/>
+      <c r="G1" s="134"/>
+      <c r="H1" s="134"/>
+      <c r="I1" s="134"/>
+      <c r="J1" s="134"/>
+      <c r="K1" s="134"/>
+      <c r="L1" s="134"/>
+      <c r="M1" s="134"/>
+      <c r="N1" s="134"/>
+      <c r="O1" s="134"/>
+      <c r="P1" s="134"/>
+      <c r="Q1" s="134"/>
+      <c r="R1" s="134"/>
     </row>
     <row r="2" spans="1:41" ht="15.75">
-      <c r="A2" s="119" t="s">
+      <c r="A2" s="134" t="s">
         <v>47</v>
       </c>
-      <c r="B2" s="119"/>
-      <c r="C2" s="119"/>
-      <c r="D2" s="119"/>
-      <c r="E2" s="119"/>
-      <c r="F2" s="119"/>
-      <c r="G2" s="119"/>
-      <c r="H2" s="119"/>
-      <c r="I2" s="119"/>
-      <c r="J2" s="119"/>
-      <c r="K2" s="119"/>
-      <c r="L2" s="119"/>
-      <c r="M2" s="119"/>
-      <c r="N2" s="119"/>
-      <c r="O2" s="119"/>
-      <c r="P2" s="119"/>
-      <c r="Q2" s="119"/>
-      <c r="R2" s="119"/>
+      <c r="B2" s="134"/>
+      <c r="C2" s="134"/>
+      <c r="D2" s="134"/>
+      <c r="E2" s="134"/>
+      <c r="F2" s="134"/>
+      <c r="G2" s="134"/>
+      <c r="H2" s="134"/>
+      <c r="I2" s="134"/>
+      <c r="J2" s="134"/>
+      <c r="K2" s="134"/>
+      <c r="L2" s="134"/>
+      <c r="M2" s="134"/>
+      <c r="N2" s="134"/>
+      <c r="O2" s="134"/>
+      <c r="P2" s="134"/>
+      <c r="Q2" s="134"/>
+      <c r="R2" s="134"/>
     </row>
     <row r="3" spans="1:41" ht="18.75" hidden="1" customHeight="1">
-      <c r="A3" s="110"/>
-      <c r="B3" s="110"/>
-      <c r="C3" s="110"/>
-      <c r="D3" s="110"/>
-      <c r="E3" s="110"/>
-      <c r="F3" s="110"/>
-      <c r="G3" s="110"/>
-      <c r="H3" s="110"/>
-      <c r="I3" s="110"/>
-      <c r="J3" s="110"/>
-      <c r="K3" s="110"/>
-      <c r="L3" s="110"/>
-      <c r="M3" s="110"/>
-      <c r="N3" s="110"/>
-      <c r="O3" s="110"/>
-      <c r="P3" s="110"/>
-      <c r="Q3" s="110"/>
+      <c r="A3" s="126"/>
+      <c r="B3" s="126"/>
+      <c r="C3" s="126"/>
+      <c r="D3" s="126"/>
+      <c r="E3" s="126"/>
+      <c r="F3" s="126"/>
+      <c r="G3" s="126"/>
+      <c r="H3" s="126"/>
+      <c r="I3" s="126"/>
+      <c r="J3" s="126"/>
+      <c r="K3" s="126"/>
+      <c r="L3" s="126"/>
+      <c r="M3" s="126"/>
+      <c r="N3" s="126"/>
+      <c r="O3" s="126"/>
+      <c r="P3" s="126"/>
+      <c r="Q3" s="126"/>
     </row>
     <row r="4" spans="1:41" ht="12.75" customHeight="1" thickBot="1">
       <c r="A4" s="23" t="s">
@@ -3486,38 +3486,38 @@
       <c r="F4" s="2"/>
     </row>
     <row r="5" spans="1:41" ht="13.5" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A5" s="121" t="s">
+      <c r="A5" s="153" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="141" t="s">
+      <c r="B5" s="155" t="s">
         <v>30</v>
       </c>
-      <c r="C5" s="141" t="s">
+      <c r="C5" s="155" t="s">
         <v>23</v>
       </c>
-      <c r="D5" s="115" t="s">
+      <c r="D5" s="150" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="116"/>
-      <c r="F5" s="116"/>
-      <c r="G5" s="116"/>
-      <c r="H5" s="116"/>
-      <c r="I5" s="117"/>
-      <c r="J5" s="143" t="s">
+      <c r="E5" s="151"/>
+      <c r="F5" s="151"/>
+      <c r="G5" s="151"/>
+      <c r="H5" s="151"/>
+      <c r="I5" s="152"/>
+      <c r="J5" s="157" t="s">
         <v>23</v>
       </c>
-      <c r="K5" s="115" t="s">
+      <c r="K5" s="150" t="s">
         <v>14</v>
       </c>
-      <c r="L5" s="116"/>
-      <c r="M5" s="116"/>
-      <c r="N5" s="116"/>
-      <c r="O5" s="116"/>
-      <c r="P5" s="117"/>
-      <c r="Q5" s="134" t="s">
+      <c r="L5" s="151"/>
+      <c r="M5" s="151"/>
+      <c r="N5" s="151"/>
+      <c r="O5" s="151"/>
+      <c r="P5" s="152"/>
+      <c r="Q5" s="175" t="s">
         <v>15</v>
       </c>
-      <c r="R5" s="139" t="s">
+      <c r="R5" s="148" t="s">
         <v>22</v>
       </c>
       <c r="AB5" s="46"/>
@@ -3531,40 +3531,40 @@
       <c r="AJ5" s="46"/>
     </row>
     <row r="6" spans="1:41" ht="23.25" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A6" s="122"/>
-      <c r="B6" s="142"/>
-      <c r="C6" s="142"/>
-      <c r="D6" s="128" t="s">
+      <c r="A6" s="154"/>
+      <c r="B6" s="156"/>
+      <c r="C6" s="156"/>
+      <c r="D6" s="165" t="s">
         <v>27</v>
       </c>
-      <c r="E6" s="129"/>
+      <c r="E6" s="166"/>
       <c r="F6" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G6" s="128" t="s">
+      <c r="G6" s="165" t="s">
         <v>17</v>
       </c>
-      <c r="H6" s="129"/>
+      <c r="H6" s="166"/>
       <c r="I6" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="J6" s="144"/>
-      <c r="K6" s="128" t="s">
+      <c r="J6" s="158"/>
+      <c r="K6" s="165" t="s">
         <v>27</v>
       </c>
-      <c r="L6" s="129"/>
+      <c r="L6" s="166"/>
       <c r="M6" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="N6" s="128" t="s">
+      <c r="N6" s="165" t="s">
         <v>17</v>
       </c>
-      <c r="O6" s="129"/>
+      <c r="O6" s="166"/>
       <c r="P6" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="Q6" s="135"/>
-      <c r="R6" s="140"/>
+      <c r="Q6" s="176"/>
+      <c r="R6" s="149"/>
       <c r="W6" s="47" t="s">
         <v>39</v>
       </c>
@@ -3608,34 +3608,34 @@
       <c r="C7" s="9">
         <v>3</v>
       </c>
-      <c r="D7" s="130">
+      <c r="D7" s="173">
         <v>4</v>
       </c>
-      <c r="E7" s="131"/>
+      <c r="E7" s="174"/>
       <c r="F7" s="9">
         <v>5</v>
       </c>
-      <c r="G7" s="130">
+      <c r="G7" s="173">
         <v>6</v>
       </c>
-      <c r="H7" s="131"/>
+      <c r="H7" s="174"/>
       <c r="I7" s="9">
         <v>7</v>
       </c>
       <c r="J7" s="9">
         <v>8</v>
       </c>
-      <c r="K7" s="130">
+      <c r="K7" s="173">
         <v>9</v>
       </c>
-      <c r="L7" s="131"/>
+      <c r="L7" s="174"/>
       <c r="M7" s="9">
         <v>10</v>
       </c>
-      <c r="N7" s="130">
+      <c r="N7" s="173">
         <v>11</v>
       </c>
-      <c r="O7" s="131"/>
+      <c r="O7" s="174"/>
       <c r="P7" s="9">
         <v>12</v>
       </c>
@@ -3666,7 +3666,7 @@
         <f>SKP!H12</f>
         <v>Dokumen</v>
       </c>
-      <c r="F8" s="211">
+      <c r="F8" s="109">
         <v>100</v>
       </c>
       <c r="G8" s="27">
@@ -3695,7 +3695,7 @@
       <c r="M8" s="25">
         <v>100</v>
       </c>
-      <c r="N8" s="211">
+      <c r="N8" s="109">
         <v>10</v>
       </c>
       <c r="O8" s="29" t="str">
@@ -3807,7 +3807,7 @@
         <f>SKP!H13</f>
         <v>Dokumen</v>
       </c>
-      <c r="F9" s="211">
+      <c r="F9" s="109">
         <v>100</v>
       </c>
       <c r="G9" s="27">
@@ -3836,7 +3836,7 @@
       <c r="M9" s="25">
         <v>100</v>
       </c>
-      <c r="N9" s="211">
+      <c r="N9" s="109">
         <v>10</v>
       </c>
       <c r="O9" s="29" t="str">
@@ -3948,7 +3948,7 @@
         <f>SKP!H14</f>
         <v>Dokumen</v>
       </c>
-      <c r="F10" s="211">
+      <c r="F10" s="109">
         <v>100</v>
       </c>
       <c r="G10" s="27">
@@ -3977,7 +3977,7 @@
       <c r="M10" s="25">
         <v>100</v>
       </c>
-      <c r="N10" s="211">
+      <c r="N10" s="109">
         <v>10</v>
       </c>
       <c r="O10" s="29" t="str">
@@ -4091,7 +4091,7 @@
         <f>SKP!H15</f>
         <v>Dokumen</v>
       </c>
-      <c r="F11" s="211">
+      <c r="F11" s="109">
         <v>100</v>
       </c>
       <c r="G11" s="27">
@@ -4120,7 +4120,7 @@
       <c r="M11" s="25">
         <v>100</v>
       </c>
-      <c r="N11" s="211">
+      <c r="N11" s="109">
         <v>10</v>
       </c>
       <c r="O11" s="29" t="str">
@@ -4231,7 +4231,7 @@
         <f>SKP!H16</f>
         <v>Dokumen</v>
       </c>
-      <c r="F12" s="211">
+      <c r="F12" s="109">
         <v>100</v>
       </c>
       <c r="G12" s="27">
@@ -4260,7 +4260,7 @@
       <c r="M12" s="25">
         <v>100</v>
       </c>
-      <c r="N12" s="211">
+      <c r="N12" s="109">
         <v>10</v>
       </c>
       <c r="O12" s="29" t="str">
@@ -4372,7 +4372,7 @@
         <f>SKP!H17</f>
         <v>Dokumen</v>
       </c>
-      <c r="F13" s="211">
+      <c r="F13" s="109">
         <v>100</v>
       </c>
       <c r="G13" s="27">
@@ -4401,7 +4401,7 @@
       <c r="M13" s="25">
         <v>100</v>
       </c>
-      <c r="N13" s="211">
+      <c r="N13" s="109">
         <v>10</v>
       </c>
       <c r="O13" s="29" t="str">
@@ -4513,7 +4513,7 @@
         <f>SKP!H18</f>
         <v>Dokumen</v>
       </c>
-      <c r="F14" s="211">
+      <c r="F14" s="109">
         <v>100</v>
       </c>
       <c r="G14" s="27">
@@ -4542,7 +4542,7 @@
       <c r="M14" s="25">
         <v>100</v>
       </c>
-      <c r="N14" s="211">
+      <c r="N14" s="109">
         <v>10</v>
       </c>
       <c r="O14" s="29" t="str">
@@ -4654,7 +4654,7 @@
         <f>SKP!H19</f>
         <v>Dokumen</v>
       </c>
-      <c r="F15" s="211">
+      <c r="F15" s="109">
         <v>100</v>
       </c>
       <c r="G15" s="27">
@@ -4683,7 +4683,7 @@
       <c r="M15" s="25">
         <v>100</v>
       </c>
-      <c r="N15" s="211">
+      <c r="N15" s="109">
         <v>10</v>
       </c>
       <c r="O15" s="29" t="str">
@@ -4795,7 +4795,7 @@
         <f>SKP!H20</f>
         <v>Dokumen</v>
       </c>
-      <c r="F16" s="211">
+      <c r="F16" s="109">
         <v>100</v>
       </c>
       <c r="G16" s="27">
@@ -4824,7 +4824,7 @@
       <c r="M16" s="25">
         <v>100</v>
       </c>
-      <c r="N16" s="211">
+      <c r="N16" s="109">
         <v>10</v>
       </c>
       <c r="O16" s="29" t="str">
@@ -5815,19 +5815,19 @@
         <v>21</v>
       </c>
       <c r="C26" s="12"/>
-      <c r="D26" s="136"/>
-      <c r="E26" s="137"/>
-      <c r="F26" s="137"/>
-      <c r="G26" s="137"/>
-      <c r="H26" s="137"/>
-      <c r="I26" s="138"/>
+      <c r="D26" s="177"/>
+      <c r="E26" s="178"/>
+      <c r="F26" s="178"/>
+      <c r="G26" s="178"/>
+      <c r="H26" s="178"/>
+      <c r="I26" s="179"/>
       <c r="J26" s="4"/>
-      <c r="K26" s="125"/>
-      <c r="L26" s="126"/>
-      <c r="M26" s="126"/>
-      <c r="N26" s="126"/>
-      <c r="O26" s="126"/>
-      <c r="P26" s="127"/>
+      <c r="K26" s="170"/>
+      <c r="L26" s="171"/>
+      <c r="M26" s="171"/>
+      <c r="N26" s="171"/>
+      <c r="O26" s="171"/>
+      <c r="P26" s="172"/>
       <c r="Q26" s="5"/>
       <c r="R26" s="6"/>
     </row>
@@ -5839,21 +5839,21 @@
         <v>31</v>
       </c>
       <c r="C27" s="35"/>
-      <c r="D27" s="132"/>
-      <c r="E27" s="132"/>
-      <c r="F27" s="132"/>
-      <c r="G27" s="132"/>
-      <c r="H27" s="132"/>
-      <c r="I27" s="132"/>
+      <c r="D27" s="147"/>
+      <c r="E27" s="147"/>
+      <c r="F27" s="147"/>
+      <c r="G27" s="147"/>
+      <c r="H27" s="147"/>
+      <c r="I27" s="147"/>
       <c r="J27" s="36"/>
-      <c r="K27" s="133"/>
-      <c r="L27" s="133"/>
-      <c r="M27" s="133"/>
-      <c r="N27" s="133"/>
-      <c r="O27" s="133"/>
-      <c r="P27" s="133"/>
+      <c r="K27" s="146"/>
+      <c r="L27" s="146"/>
+      <c r="M27" s="146"/>
+      <c r="N27" s="146"/>
+      <c r="O27" s="146"/>
+      <c r="P27" s="146"/>
       <c r="Q27" s="34"/>
-      <c r="R27" s="151"/>
+      <c r="R27" s="167"/>
       <c r="Z27" s="47" t="s">
         <v>41</v>
       </c>
@@ -5868,21 +5868,21 @@
         <v>31</v>
       </c>
       <c r="C28" s="35"/>
-      <c r="D28" s="132"/>
-      <c r="E28" s="132"/>
-      <c r="F28" s="132"/>
-      <c r="G28" s="132"/>
-      <c r="H28" s="132"/>
-      <c r="I28" s="132"/>
+      <c r="D28" s="147"/>
+      <c r="E28" s="147"/>
+      <c r="F28" s="147"/>
+      <c r="G28" s="147"/>
+      <c r="H28" s="147"/>
+      <c r="I28" s="147"/>
       <c r="J28" s="36"/>
-      <c r="K28" s="133"/>
-      <c r="L28" s="133"/>
-      <c r="M28" s="133"/>
-      <c r="N28" s="133"/>
-      <c r="O28" s="133"/>
-      <c r="P28" s="133"/>
+      <c r="K28" s="146"/>
+      <c r="L28" s="146"/>
+      <c r="M28" s="146"/>
+      <c r="N28" s="146"/>
+      <c r="O28" s="146"/>
+      <c r="P28" s="146"/>
       <c r="Q28" s="34"/>
-      <c r="R28" s="152"/>
+      <c r="R28" s="168"/>
       <c r="Z28" t="s">
         <v>42</v>
       </c>
@@ -5899,21 +5899,21 @@
         <v>32</v>
       </c>
       <c r="C29" s="35"/>
-      <c r="D29" s="132"/>
-      <c r="E29" s="132"/>
-      <c r="F29" s="132"/>
-      <c r="G29" s="132"/>
-      <c r="H29" s="132"/>
-      <c r="I29" s="132"/>
+      <c r="D29" s="147"/>
+      <c r="E29" s="147"/>
+      <c r="F29" s="147"/>
+      <c r="G29" s="147"/>
+      <c r="H29" s="147"/>
+      <c r="I29" s="147"/>
       <c r="J29" s="36"/>
-      <c r="K29" s="133"/>
-      <c r="L29" s="133"/>
-      <c r="M29" s="133"/>
-      <c r="N29" s="133"/>
-      <c r="O29" s="133"/>
-      <c r="P29" s="133"/>
+      <c r="K29" s="146"/>
+      <c r="L29" s="146"/>
+      <c r="M29" s="146"/>
+      <c r="N29" s="146"/>
+      <c r="O29" s="146"/>
+      <c r="P29" s="146"/>
       <c r="Q29" s="34"/>
-      <c r="R29" s="151"/>
+      <c r="R29" s="167"/>
       <c r="AL29" s="46"/>
     </row>
     <row r="30" spans="1:41" ht="15.75" customHeight="1" thickTop="1" thickBot="1">
@@ -5922,21 +5922,21 @@
         <v>32</v>
       </c>
       <c r="C30" s="35"/>
-      <c r="D30" s="132"/>
-      <c r="E30" s="132"/>
-      <c r="F30" s="132"/>
-      <c r="G30" s="132"/>
-      <c r="H30" s="132"/>
-      <c r="I30" s="132"/>
+      <c r="D30" s="147"/>
+      <c r="E30" s="147"/>
+      <c r="F30" s="147"/>
+      <c r="G30" s="147"/>
+      <c r="H30" s="147"/>
+      <c r="I30" s="147"/>
       <c r="J30" s="36"/>
-      <c r="K30" s="133"/>
-      <c r="L30" s="133"/>
-      <c r="M30" s="133"/>
-      <c r="N30" s="133"/>
-      <c r="O30" s="133"/>
-      <c r="P30" s="133"/>
+      <c r="K30" s="146"/>
+      <c r="L30" s="146"/>
+      <c r="M30" s="146"/>
+      <c r="N30" s="146"/>
+      <c r="O30" s="146"/>
+      <c r="P30" s="146"/>
       <c r="Q30" s="34"/>
-      <c r="R30" s="153"/>
+      <c r="R30" s="169"/>
       <c r="X30">
         <f>SUM(Y12:AA12)</f>
         <v>276</v>
@@ -5963,25 +5963,25 @@
       <c r="R31" s="43"/>
     </row>
     <row r="32" spans="1:41" ht="13.5" customHeight="1" thickTop="1">
-      <c r="A32" s="145" t="s">
+      <c r="A32" s="159" t="s">
         <v>19</v>
       </c>
-      <c r="B32" s="146"/>
-      <c r="C32" s="146"/>
-      <c r="D32" s="146"/>
-      <c r="E32" s="146"/>
-      <c r="F32" s="146"/>
-      <c r="G32" s="146"/>
-      <c r="H32" s="146"/>
-      <c r="I32" s="146"/>
-      <c r="J32" s="146"/>
-      <c r="K32" s="146"/>
-      <c r="L32" s="146"/>
-      <c r="M32" s="146"/>
-      <c r="N32" s="146"/>
-      <c r="O32" s="146"/>
-      <c r="P32" s="146"/>
-      <c r="Q32" s="147"/>
+      <c r="B32" s="160"/>
+      <c r="C32" s="160"/>
+      <c r="D32" s="160"/>
+      <c r="E32" s="160"/>
+      <c r="F32" s="160"/>
+      <c r="G32" s="160"/>
+      <c r="H32" s="160"/>
+      <c r="I32" s="160"/>
+      <c r="J32" s="160"/>
+      <c r="K32" s="160"/>
+      <c r="L32" s="160"/>
+      <c r="M32" s="160"/>
+      <c r="N32" s="160"/>
+      <c r="O32" s="160"/>
+      <c r="P32" s="160"/>
+      <c r="Q32" s="161"/>
       <c r="R32" s="15">
         <f>(SUM(R8:R16)/T32)+R27+R29</f>
         <v>92</v>
@@ -5992,23 +5992,23 @@
       </c>
     </row>
     <row r="33" spans="1:18" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A33" s="148"/>
-      <c r="B33" s="149"/>
-      <c r="C33" s="149"/>
-      <c r="D33" s="149"/>
-      <c r="E33" s="149"/>
-      <c r="F33" s="149"/>
-      <c r="G33" s="149"/>
-      <c r="H33" s="149"/>
-      <c r="I33" s="149"/>
-      <c r="J33" s="149"/>
-      <c r="K33" s="149"/>
-      <c r="L33" s="149"/>
-      <c r="M33" s="149"/>
-      <c r="N33" s="149"/>
-      <c r="O33" s="149"/>
-      <c r="P33" s="149"/>
-      <c r="Q33" s="150"/>
+      <c r="A33" s="162"/>
+      <c r="B33" s="163"/>
+      <c r="C33" s="163"/>
+      <c r="D33" s="163"/>
+      <c r="E33" s="163"/>
+      <c r="F33" s="163"/>
+      <c r="G33" s="163"/>
+      <c r="H33" s="163"/>
+      <c r="I33" s="163"/>
+      <c r="J33" s="163"/>
+      <c r="K33" s="163"/>
+      <c r="L33" s="163"/>
+      <c r="M33" s="163"/>
+      <c r="N33" s="163"/>
+      <c r="O33" s="163"/>
+      <c r="P33" s="163"/>
+      <c r="Q33" s="164"/>
       <c r="R33" s="20" t="str">
         <f>IF(R32&lt;=50,"(Buruk)",IF(R32&lt;=60,"(Sedang)",IF(R32&lt;=75,"(Cukup)",IF(R32&lt;=90.99,"(Baik)","(Sangat Baik)"))))</f>
         <v>(Sangat Baik)</v>
@@ -6016,51 +6016,71 @@
     </row>
     <row r="34" spans="1:18" ht="7.5" customHeight="1" thickTop="1"/>
     <row r="35" spans="1:18">
-      <c r="M35" s="114" t="s">
+      <c r="M35" s="136" t="s">
         <v>122</v>
       </c>
-      <c r="N35" s="110"/>
-      <c r="O35" s="110"/>
-      <c r="P35" s="110"/>
-      <c r="Q35" s="110"/>
-      <c r="R35" s="110"/>
+      <c r="N35" s="126"/>
+      <c r="O35" s="126"/>
+      <c r="P35" s="126"/>
+      <c r="Q35" s="126"/>
+      <c r="R35" s="126"/>
     </row>
     <row r="36" spans="1:18">
-      <c r="M36" s="114" t="s">
+      <c r="M36" s="136" t="s">
         <v>28</v>
       </c>
-      <c r="N36" s="114"/>
-      <c r="O36" s="114"/>
-      <c r="P36" s="114"/>
-      <c r="Q36" s="114"/>
-      <c r="R36" s="114"/>
+      <c r="N36" s="136"/>
+      <c r="O36" s="136"/>
+      <c r="P36" s="136"/>
+      <c r="Q36" s="136"/>
+      <c r="R36" s="136"/>
     </row>
     <row r="37" spans="1:18" ht="13.5" customHeight="1"/>
     <row r="38" spans="1:18" ht="39" customHeight="1"/>
     <row r="39" spans="1:18">
-      <c r="M39" s="113" t="str">
+      <c r="M39" s="125" t="str">
         <f>SKP!B35</f>
         <v>Dra. Imas Maesaroh, Dip.IM-Lib., M.Lib., Ph.D.</v>
       </c>
-      <c r="N39" s="113"/>
-      <c r="O39" s="113"/>
-      <c r="P39" s="113"/>
-      <c r="Q39" s="113"/>
-      <c r="R39" s="113"/>
+      <c r="N39" s="125"/>
+      <c r="O39" s="125"/>
+      <c r="P39" s="125"/>
+      <c r="Q39" s="125"/>
+      <c r="R39" s="125"/>
     </row>
     <row r="40" spans="1:18">
-      <c r="M40" s="110" t="str">
+      <c r="M40" s="126" t="str">
         <f>SKP!B36</f>
         <v>196605141992032001</v>
       </c>
-      <c r="N40" s="110"/>
-      <c r="O40" s="110"/>
-      <c r="P40" s="110"/>
-      <c r="Q40" s="110"/>
-      <c r="R40" s="110"/>
+      <c r="N40" s="126"/>
+      <c r="O40" s="126"/>
+      <c r="P40" s="126"/>
+      <c r="Q40" s="126"/>
+      <c r="R40" s="126"/>
     </row>
   </sheetData>
   <mergeCells count="36">
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="D28:I28"/>
+    <mergeCell ref="K28:P28"/>
+    <mergeCell ref="D29:I29"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="R27:R28"/>
+    <mergeCell ref="R29:R30"/>
+    <mergeCell ref="M40:R40"/>
+    <mergeCell ref="K26:P26"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="D27:I27"/>
+    <mergeCell ref="K27:P27"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="N6:O6"/>
+    <mergeCell ref="Q5:Q6"/>
+    <mergeCell ref="D26:I26"/>
+    <mergeCell ref="D5:I5"/>
+    <mergeCell ref="D7:E7"/>
     <mergeCell ref="K29:P29"/>
     <mergeCell ref="D30:I30"/>
     <mergeCell ref="K30:P30"/>
@@ -6077,26 +6097,6 @@
     <mergeCell ref="C5:C6"/>
     <mergeCell ref="J5:J6"/>
     <mergeCell ref="A32:Q33"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="R27:R28"/>
-    <mergeCell ref="R29:R30"/>
-    <mergeCell ref="M40:R40"/>
-    <mergeCell ref="K26:P26"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="D27:I27"/>
-    <mergeCell ref="K27:P27"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="N6:O6"/>
-    <mergeCell ref="Q5:Q6"/>
-    <mergeCell ref="D26:I26"/>
-    <mergeCell ref="D5:I5"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="D28:I28"/>
-    <mergeCell ref="K28:P28"/>
-    <mergeCell ref="D29:I29"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.74803149606299213" right="0.74803149606299213" top="0.83" bottom="1.81" header="0.51181102362204722" footer="2.02"/>
@@ -6109,7 +6109,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B1:W54"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="K37" sqref="K37:K42"/>
     </sheetView>
   </sheetViews>
@@ -6133,39 +6133,39 @@
   <sheetData>
     <row r="1" spans="2:23" ht="13.5" thickBot="1"/>
     <row r="2" spans="2:23" ht="30" customHeight="1" thickBot="1">
-      <c r="B2" s="194" t="s">
+      <c r="B2" s="183" t="s">
         <v>63</v>
       </c>
-      <c r="C2" s="197" t="s">
+      <c r="C2" s="186" t="s">
         <v>48</v>
       </c>
-      <c r="D2" s="198"/>
-      <c r="E2" s="198"/>
-      <c r="F2" s="198"/>
-      <c r="G2" s="198"/>
-      <c r="H2" s="199"/>
+      <c r="D2" s="187"/>
+      <c r="E2" s="187"/>
+      <c r="F2" s="187"/>
+      <c r="G2" s="187"/>
+      <c r="H2" s="188"/>
       <c r="I2" s="68" t="s">
         <v>49</v>
       </c>
-      <c r="K2" s="172" t="s">
+      <c r="K2" s="210" t="s">
         <v>64</v>
       </c>
-      <c r="L2" s="173"/>
-      <c r="M2" s="173"/>
-      <c r="N2" s="173"/>
-      <c r="O2" s="173"/>
-      <c r="P2" s="173"/>
-      <c r="Q2" s="173"/>
-      <c r="R2" s="173"/>
-      <c r="S2" s="173"/>
-      <c r="T2" s="174"/>
+      <c r="L2" s="211"/>
+      <c r="M2" s="211"/>
+      <c r="N2" s="211"/>
+      <c r="O2" s="211"/>
+      <c r="P2" s="211"/>
+      <c r="Q2" s="211"/>
+      <c r="R2" s="211"/>
+      <c r="S2" s="211"/>
+      <c r="T2" s="212"/>
     </row>
     <row r="3" spans="2:23" ht="30" customHeight="1" thickBot="1">
-      <c r="B3" s="195"/>
-      <c r="C3" s="184" t="s">
+      <c r="B3" s="184"/>
+      <c r="C3" s="208" t="s">
         <v>61</v>
       </c>
-      <c r="D3" s="185"/>
+      <c r="D3" s="209"/>
       <c r="E3" s="64"/>
       <c r="F3" s="64">
         <f>PENGUKURAN!R32</f>
@@ -6181,37 +6181,37 @@
         <f>F3*H3</f>
         <v>55.199999999999996</v>
       </c>
-      <c r="K3" s="175" t="s">
+      <c r="K3" s="213" t="s">
         <v>66</v>
       </c>
-      <c r="L3" s="176"/>
-      <c r="M3" s="176"/>
-      <c r="N3" s="176"/>
-      <c r="O3" s="176"/>
-      <c r="P3" s="176"/>
-      <c r="Q3" s="176"/>
-      <c r="R3" s="176"/>
-      <c r="S3" s="176"/>
-      <c r="T3" s="177"/>
+      <c r="L3" s="214"/>
+      <c r="M3" s="214"/>
+      <c r="N3" s="214"/>
+      <c r="O3" s="214"/>
+      <c r="P3" s="214"/>
+      <c r="Q3" s="214"/>
+      <c r="R3" s="214"/>
+      <c r="S3" s="214"/>
+      <c r="T3" s="215"/>
       <c r="W3" s="97"/>
     </row>
     <row r="4" spans="2:23" ht="30" customHeight="1" thickBot="1">
-      <c r="B4" s="195"/>
-      <c r="C4" s="200" t="s">
+      <c r="B4" s="184"/>
+      <c r="C4" s="189" t="s">
         <v>68</v>
       </c>
-      <c r="D4" s="186" t="s">
+      <c r="D4" s="195" t="s">
         <v>50</v>
       </c>
-      <c r="E4" s="187"/>
+      <c r="E4" s="196"/>
       <c r="F4" s="66">
         <v>85</v>
       </c>
-      <c r="G4" s="190" t="str">
+      <c r="G4" s="197" t="str">
         <f>IF(F4&lt;=50,"(Buruk)",IF(F4&lt;=60,"(Sedang)",IF(F4&lt;=75,"(Cukup)",IF(F4&lt;=90.99,"(Baik)","(Sangat Baik)"))))</f>
         <v>(Baik)</v>
       </c>
-      <c r="H4" s="191"/>
+      <c r="H4" s="198"/>
       <c r="I4" s="69"/>
       <c r="K4" s="56"/>
       <c r="L4" s="52"/>
@@ -6225,20 +6225,20 @@
       <c r="T4" s="53"/>
     </row>
     <row r="5" spans="2:23" ht="30" customHeight="1" thickBot="1">
-      <c r="B5" s="195"/>
-      <c r="C5" s="201"/>
-      <c r="D5" s="186" t="s">
+      <c r="B5" s="184"/>
+      <c r="C5" s="190"/>
+      <c r="D5" s="195" t="s">
         <v>51</v>
       </c>
-      <c r="E5" s="187"/>
+      <c r="E5" s="196"/>
       <c r="F5" s="66">
         <v>85</v>
       </c>
-      <c r="G5" s="190" t="str">
+      <c r="G5" s="197" t="str">
         <f>IF(F5&lt;=50,"(Buruk)",IF(F5&lt;=60,"(Sedang)",IF(F5&lt;=75,"(Cukup)",IF(F5&lt;=90.99,"(Baik)","(Sangat Baik)"))))</f>
         <v>(Baik)</v>
       </c>
-      <c r="H5" s="191"/>
+      <c r="H5" s="198"/>
       <c r="I5" s="69"/>
       <c r="K5" s="56"/>
       <c r="L5" s="52"/>
@@ -6252,20 +6252,20 @@
       <c r="T5" s="53"/>
     </row>
     <row r="6" spans="2:23" ht="30" customHeight="1" thickBot="1">
-      <c r="B6" s="195"/>
-      <c r="C6" s="201"/>
-      <c r="D6" s="186" t="s">
+      <c r="B6" s="184"/>
+      <c r="C6" s="190"/>
+      <c r="D6" s="195" t="s">
         <v>52</v>
       </c>
-      <c r="E6" s="187"/>
+      <c r="E6" s="196"/>
       <c r="F6" s="66">
         <v>85</v>
       </c>
-      <c r="G6" s="190" t="str">
+      <c r="G6" s="197" t="str">
         <f>IF(F6&lt;=50,"(Buruk)",IF(F6&lt;=60,"(Sedang)",IF(F6&lt;=75,"(Cukup)",IF(F6&lt;=90.99,"(Baik)","(Sangat Baik)"))))</f>
         <v>(Baik)</v>
       </c>
-      <c r="H6" s="191"/>
+      <c r="H6" s="198"/>
       <c r="I6" s="69"/>
       <c r="K6" s="56"/>
       <c r="L6" s="52"/>
@@ -6279,20 +6279,20 @@
       <c r="T6" s="53"/>
     </row>
     <row r="7" spans="2:23" ht="30" customHeight="1" thickBot="1">
-      <c r="B7" s="195"/>
-      <c r="C7" s="201"/>
-      <c r="D7" s="186" t="s">
+      <c r="B7" s="184"/>
+      <c r="C7" s="190"/>
+      <c r="D7" s="195" t="s">
         <v>53</v>
       </c>
-      <c r="E7" s="187"/>
+      <c r="E7" s="196"/>
       <c r="F7" s="66">
         <v>85</v>
       </c>
-      <c r="G7" s="190" t="str">
+      <c r="G7" s="197" t="str">
         <f>IF(F7&lt;=50,"(Buruk)",IF(F7&lt;=60,"(Sedang)",IF(F7&lt;=75,"(Cukup)",IF(F7&lt;=90.99,"(Baik)","(Sangat Baik)"))))</f>
         <v>(Baik)</v>
       </c>
-      <c r="H7" s="191"/>
+      <c r="H7" s="198"/>
       <c r="I7" s="69"/>
       <c r="K7" s="56"/>
       <c r="L7" s="52"/>
@@ -6306,20 +6306,20 @@
       <c r="T7" s="53"/>
     </row>
     <row r="8" spans="2:23" ht="30" customHeight="1" thickBot="1">
-      <c r="B8" s="195"/>
-      <c r="C8" s="201"/>
-      <c r="D8" s="186" t="s">
+      <c r="B8" s="184"/>
+      <c r="C8" s="190"/>
+      <c r="D8" s="195" t="s">
         <v>54</v>
       </c>
-      <c r="E8" s="187"/>
+      <c r="E8" s="196"/>
       <c r="F8" s="66">
         <v>85</v>
       </c>
-      <c r="G8" s="190" t="str">
+      <c r="G8" s="197" t="str">
         <f>IF(F8&lt;=50,"(Buruk)",IF(F8&lt;=60,"(Sedang)",IF(F8&lt;=75,"(Cukup)",IF(F8&lt;=90.99,"(Baik)","(Sangat Baik)"))))</f>
         <v>(Baik)</v>
       </c>
-      <c r="H8" s="191"/>
+      <c r="H8" s="198"/>
       <c r="I8" s="69"/>
       <c r="K8" s="56"/>
       <c r="L8" s="52"/>
@@ -6333,20 +6333,20 @@
       <c r="T8" s="53"/>
     </row>
     <row r="9" spans="2:23" ht="30" customHeight="1" thickBot="1">
-      <c r="B9" s="195"/>
-      <c r="C9" s="201"/>
-      <c r="D9" s="186" t="s">
+      <c r="B9" s="184"/>
+      <c r="C9" s="190"/>
+      <c r="D9" s="195" t="s">
         <v>55</v>
       </c>
-      <c r="E9" s="187"/>
+      <c r="E9" s="196"/>
       <c r="F9" s="66">
         <v>85</v>
       </c>
-      <c r="G9" s="190" t="str">
+      <c r="G9" s="197" t="str">
         <f>IF(F9="-","",IF(F9&lt;=50,"(Buruk)",IF(F9&lt;=60,"(Sedang)",IF(F9&lt;=75,"(Cukup)",IF(F9&lt;=90.99,"(Baik)","(Sangat Baik)")))))</f>
         <v>(Baik)</v>
       </c>
-      <c r="H9" s="191"/>
+      <c r="H9" s="198"/>
       <c r="I9" s="69"/>
       <c r="K9" s="56"/>
       <c r="L9" s="52"/>
@@ -6360,69 +6360,69 @@
       <c r="T9" s="53"/>
     </row>
     <row r="10" spans="2:23" ht="30" customHeight="1" thickBot="1">
-      <c r="B10" s="195"/>
-      <c r="C10" s="201"/>
-      <c r="D10" s="186" t="s">
+      <c r="B10" s="184"/>
+      <c r="C10" s="190"/>
+      <c r="D10" s="195" t="s">
         <v>56</v>
       </c>
-      <c r="E10" s="187"/>
+      <c r="E10" s="196"/>
       <c r="F10" s="66">
         <f>SUM(F4:F9)</f>
         <v>510</v>
       </c>
-      <c r="G10" s="192"/>
-      <c r="H10" s="193"/>
+      <c r="G10" s="206"/>
+      <c r="H10" s="207"/>
       <c r="I10" s="69"/>
-      <c r="K10" s="181" t="s">
+      <c r="K10" s="219" t="s">
         <v>60</v>
       </c>
-      <c r="L10" s="182"/>
-      <c r="M10" s="182"/>
-      <c r="N10" s="182"/>
-      <c r="O10" s="182"/>
-      <c r="P10" s="182"/>
-      <c r="Q10" s="182"/>
-      <c r="R10" s="182"/>
-      <c r="S10" s="182"/>
-      <c r="T10" s="183"/>
+      <c r="L10" s="220"/>
+      <c r="M10" s="220"/>
+      <c r="N10" s="220"/>
+      <c r="O10" s="220"/>
+      <c r="P10" s="220"/>
+      <c r="Q10" s="220"/>
+      <c r="R10" s="220"/>
+      <c r="S10" s="220"/>
+      <c r="T10" s="221"/>
     </row>
     <row r="11" spans="2:23" ht="30" customHeight="1" thickBot="1">
-      <c r="B11" s="195"/>
-      <c r="C11" s="201"/>
-      <c r="D11" s="186" t="s">
+      <c r="B11" s="184"/>
+      <c r="C11" s="190"/>
+      <c r="D11" s="195" t="s">
         <v>57</v>
       </c>
-      <c r="E11" s="187"/>
+      <c r="E11" s="196"/>
       <c r="F11" s="72">
         <f>IF(F9="-",IF(F9="-",F10/5,F10/6),F10/6)</f>
         <v>85</v>
       </c>
-      <c r="G11" s="190" t="str">
+      <c r="G11" s="197" t="str">
         <f>IF(F11&lt;=50,"(Buruk)",IF(F11&lt;=60,"(Sedang)",IF(F11&lt;=75,"(Cukup)",IF(F11&lt;=90.99,"(Baik)","(Sangat Baik)"))))</f>
         <v>(Baik)</v>
       </c>
-      <c r="H11" s="191"/>
+      <c r="H11" s="198"/>
       <c r="I11" s="69"/>
-      <c r="K11" s="172" t="s">
+      <c r="K11" s="210" t="s">
         <v>65</v>
       </c>
-      <c r="L11" s="173"/>
-      <c r="M11" s="173"/>
-      <c r="N11" s="173"/>
-      <c r="O11" s="173"/>
-      <c r="P11" s="173"/>
-      <c r="Q11" s="173"/>
-      <c r="R11" s="173"/>
-      <c r="S11" s="173"/>
-      <c r="T11" s="174"/>
+      <c r="L11" s="211"/>
+      <c r="M11" s="211"/>
+      <c r="N11" s="211"/>
+      <c r="O11" s="211"/>
+      <c r="P11" s="211"/>
+      <c r="Q11" s="211"/>
+      <c r="R11" s="211"/>
+      <c r="S11" s="211"/>
+      <c r="T11" s="212"/>
     </row>
     <row r="12" spans="2:23" ht="30" customHeight="1" thickBot="1">
-      <c r="B12" s="196"/>
-      <c r="C12" s="202"/>
-      <c r="D12" s="206" t="s">
+      <c r="B12" s="185"/>
+      <c r="C12" s="191"/>
+      <c r="D12" s="199" t="s">
         <v>70</v>
       </c>
-      <c r="E12" s="207"/>
+      <c r="E12" s="200"/>
       <c r="F12" s="75">
         <f>F11</f>
         <v>85</v>
@@ -6437,27 +6437,27 @@
         <f>F12*H12</f>
         <v>34</v>
       </c>
-      <c r="K12" s="175" t="s">
+      <c r="K12" s="213" t="s">
         <v>67</v>
       </c>
-      <c r="L12" s="176"/>
-      <c r="M12" s="176"/>
-      <c r="N12" s="176"/>
-      <c r="O12" s="176"/>
-      <c r="P12" s="176"/>
-      <c r="Q12" s="176"/>
-      <c r="R12" s="176"/>
-      <c r="S12" s="176"/>
-      <c r="T12" s="177"/>
+      <c r="L12" s="214"/>
+      <c r="M12" s="214"/>
+      <c r="N12" s="214"/>
+      <c r="O12" s="214"/>
+      <c r="P12" s="214"/>
+      <c r="Q12" s="214"/>
+      <c r="R12" s="214"/>
+      <c r="S12" s="214"/>
+      <c r="T12" s="215"/>
     </row>
     <row r="13" spans="2:23" ht="30" customHeight="1" thickBot="1">
-      <c r="B13" s="203"/>
-      <c r="C13" s="204"/>
-      <c r="D13" s="204"/>
-      <c r="E13" s="204"/>
-      <c r="F13" s="204"/>
-      <c r="G13" s="204"/>
-      <c r="H13" s="205"/>
+      <c r="B13" s="192"/>
+      <c r="C13" s="193"/>
+      <c r="D13" s="193"/>
+      <c r="E13" s="193"/>
+      <c r="F13" s="193"/>
+      <c r="G13" s="193"/>
+      <c r="H13" s="194"/>
       <c r="I13" s="95">
         <f>I12+I3</f>
         <v>89.199999999999989</v>
@@ -6474,15 +6474,15 @@
       <c r="T13" s="53"/>
     </row>
     <row r="14" spans="2:23" ht="30" customHeight="1" thickBot="1">
-      <c r="B14" s="188" t="s">
+      <c r="B14" s="204" t="s">
         <v>58</v>
       </c>
-      <c r="C14" s="189"/>
-      <c r="D14" s="189"/>
-      <c r="E14" s="189"/>
-      <c r="F14" s="189"/>
-      <c r="G14" s="189"/>
-      <c r="H14" s="189"/>
+      <c r="C14" s="205"/>
+      <c r="D14" s="205"/>
+      <c r="E14" s="205"/>
+      <c r="F14" s="205"/>
+      <c r="G14" s="205"/>
+      <c r="H14" s="205"/>
       <c r="I14" s="63" t="str">
         <f>IF(I13&lt;=50,"(Buruk)",IF(I13&lt;=60,"(Sedang)",IF(I13&lt;=75,"(Cukup)",IF(I13&lt;=90.99,"(Baik)","(Sangat Baik)"))))</f>
         <v>(Baik)</v>
@@ -6500,16 +6500,16 @@
       <c r="T14" s="53"/>
     </row>
     <row r="15" spans="2:23" ht="30" customHeight="1">
-      <c r="B15" s="208" t="s">
+      <c r="B15" s="201" t="s">
         <v>59</v>
       </c>
-      <c r="C15" s="209"/>
-      <c r="D15" s="209"/>
-      <c r="E15" s="209"/>
-      <c r="F15" s="209"/>
-      <c r="G15" s="209"/>
-      <c r="H15" s="209"/>
-      <c r="I15" s="210"/>
+      <c r="C15" s="202"/>
+      <c r="D15" s="202"/>
+      <c r="E15" s="202"/>
+      <c r="F15" s="202"/>
+      <c r="G15" s="202"/>
+      <c r="H15" s="202"/>
+      <c r="I15" s="203"/>
       <c r="K15" s="56"/>
       <c r="L15" s="52"/>
       <c r="M15" s="52"/>
@@ -6522,16 +6522,16 @@
       <c r="T15" s="53"/>
     </row>
     <row r="16" spans="2:23" ht="30" customHeight="1">
-      <c r="B16" s="162" t="s">
+      <c r="B16" s="180" t="s">
         <v>62</v>
       </c>
-      <c r="C16" s="163"/>
-      <c r="D16" s="163"/>
-      <c r="E16" s="163"/>
-      <c r="F16" s="163"/>
-      <c r="G16" s="163"/>
-      <c r="H16" s="163"/>
-      <c r="I16" s="164"/>
+      <c r="C16" s="181"/>
+      <c r="D16" s="181"/>
+      <c r="E16" s="181"/>
+      <c r="F16" s="181"/>
+      <c r="G16" s="181"/>
+      <c r="H16" s="181"/>
+      <c r="I16" s="182"/>
       <c r="K16" s="56"/>
       <c r="L16" s="52"/>
       <c r="M16" s="52"/>
@@ -6544,14 +6544,14 @@
       <c r="T16" s="53"/>
     </row>
     <row r="17" spans="2:20" ht="30" customHeight="1">
-      <c r="B17" s="162"/>
-      <c r="C17" s="163"/>
-      <c r="D17" s="163"/>
-      <c r="E17" s="163"/>
-      <c r="F17" s="163"/>
-      <c r="G17" s="163"/>
-      <c r="H17" s="163"/>
-      <c r="I17" s="164"/>
+      <c r="B17" s="180"/>
+      <c r="C17" s="181"/>
+      <c r="D17" s="181"/>
+      <c r="E17" s="181"/>
+      <c r="F17" s="181"/>
+      <c r="G17" s="181"/>
+      <c r="H17" s="181"/>
+      <c r="I17" s="182"/>
       <c r="K17" s="60"/>
       <c r="L17" s="52"/>
       <c r="M17" s="52"/>
@@ -6564,14 +6564,14 @@
       <c r="T17" s="53"/>
     </row>
     <row r="18" spans="2:20" ht="30" customHeight="1">
-      <c r="B18" s="162"/>
-      <c r="C18" s="163"/>
-      <c r="D18" s="163"/>
-      <c r="E18" s="163"/>
-      <c r="F18" s="163"/>
-      <c r="G18" s="163"/>
-      <c r="H18" s="163"/>
-      <c r="I18" s="164"/>
+      <c r="B18" s="180"/>
+      <c r="C18" s="181"/>
+      <c r="D18" s="181"/>
+      <c r="E18" s="181"/>
+      <c r="F18" s="181"/>
+      <c r="G18" s="181"/>
+      <c r="H18" s="181"/>
+      <c r="I18" s="182"/>
       <c r="K18" s="59"/>
       <c r="L18" s="52"/>
       <c r="M18" s="52"/>
@@ -6584,14 +6584,14 @@
       <c r="T18" s="53"/>
     </row>
     <row r="19" spans="2:20" ht="30" customHeight="1">
-      <c r="B19" s="162"/>
-      <c r="C19" s="163"/>
-      <c r="D19" s="163"/>
-      <c r="E19" s="163"/>
-      <c r="F19" s="163"/>
-      <c r="G19" s="163"/>
-      <c r="H19" s="163"/>
-      <c r="I19" s="164"/>
+      <c r="B19" s="180"/>
+      <c r="C19" s="181"/>
+      <c r="D19" s="181"/>
+      <c r="E19" s="181"/>
+      <c r="F19" s="181"/>
+      <c r="G19" s="181"/>
+      <c r="H19" s="181"/>
+      <c r="I19" s="182"/>
       <c r="K19" s="60"/>
       <c r="L19" s="52"/>
       <c r="M19" s="52"/>
@@ -6604,14 +6604,14 @@
       <c r="T19" s="53"/>
     </row>
     <row r="20" spans="2:20" ht="30" customHeight="1">
-      <c r="B20" s="162"/>
-      <c r="C20" s="163"/>
-      <c r="D20" s="163"/>
-      <c r="E20" s="163"/>
-      <c r="F20" s="163"/>
-      <c r="G20" s="163"/>
-      <c r="H20" s="163"/>
-      <c r="I20" s="164"/>
+      <c r="B20" s="180"/>
+      <c r="C20" s="181"/>
+      <c r="D20" s="181"/>
+      <c r="E20" s="181"/>
+      <c r="F20" s="181"/>
+      <c r="G20" s="181"/>
+      <c r="H20" s="181"/>
+      <c r="I20" s="182"/>
       <c r="K20" s="60"/>
       <c r="L20" s="52"/>
       <c r="M20" s="52"/>
@@ -6624,14 +6624,14 @@
       <c r="T20" s="53"/>
     </row>
     <row r="21" spans="2:20" ht="30" customHeight="1">
-      <c r="B21" s="162"/>
-      <c r="C21" s="163"/>
-      <c r="D21" s="163"/>
-      <c r="E21" s="163"/>
-      <c r="F21" s="163"/>
-      <c r="G21" s="163"/>
-      <c r="H21" s="163"/>
-      <c r="I21" s="164"/>
+      <c r="B21" s="180"/>
+      <c r="C21" s="181"/>
+      <c r="D21" s="181"/>
+      <c r="E21" s="181"/>
+      <c r="F21" s="181"/>
+      <c r="G21" s="181"/>
+      <c r="H21" s="181"/>
+      <c r="I21" s="182"/>
       <c r="K21" s="61"/>
       <c r="L21" s="52"/>
       <c r="M21" s="52"/>
@@ -6644,14 +6644,14 @@
       <c r="T21" s="53"/>
     </row>
     <row r="22" spans="2:20" ht="30" customHeight="1">
-      <c r="B22" s="162"/>
-      <c r="C22" s="163"/>
-      <c r="D22" s="163"/>
-      <c r="E22" s="163"/>
-      <c r="F22" s="163"/>
-      <c r="G22" s="163"/>
-      <c r="H22" s="163"/>
-      <c r="I22" s="164"/>
+      <c r="B22" s="180"/>
+      <c r="C22" s="181"/>
+      <c r="D22" s="181"/>
+      <c r="E22" s="181"/>
+      <c r="F22" s="181"/>
+      <c r="G22" s="181"/>
+      <c r="H22" s="181"/>
+      <c r="I22" s="182"/>
       <c r="K22" s="61"/>
       <c r="L22" s="52"/>
       <c r="M22" s="52"/>
@@ -6664,39 +6664,39 @@
       <c r="T22" s="53"/>
     </row>
     <row r="23" spans="2:20" ht="30" customHeight="1">
-      <c r="B23" s="166" t="s">
+      <c r="B23" s="225" t="s">
         <v>60</v>
       </c>
-      <c r="C23" s="167"/>
-      <c r="D23" s="167"/>
-      <c r="E23" s="167"/>
-      <c r="F23" s="167"/>
-      <c r="G23" s="167"/>
-      <c r="H23" s="167"/>
-      <c r="I23" s="168"/>
+      <c r="C23" s="226"/>
+      <c r="D23" s="226"/>
+      <c r="E23" s="226"/>
+      <c r="F23" s="226"/>
+      <c r="G23" s="226"/>
+      <c r="H23" s="226"/>
+      <c r="I23" s="227"/>
       <c r="J23" s="58"/>
-      <c r="K23" s="178" t="s">
+      <c r="K23" s="216" t="s">
         <v>60</v>
       </c>
-      <c r="L23" s="179"/>
-      <c r="M23" s="179"/>
-      <c r="N23" s="179"/>
-      <c r="O23" s="179"/>
-      <c r="P23" s="179"/>
-      <c r="Q23" s="179"/>
-      <c r="R23" s="179"/>
-      <c r="S23" s="179"/>
-      <c r="T23" s="180"/>
+      <c r="L23" s="217"/>
+      <c r="M23" s="217"/>
+      <c r="N23" s="217"/>
+      <c r="O23" s="217"/>
+      <c r="P23" s="217"/>
+      <c r="Q23" s="217"/>
+      <c r="R23" s="217"/>
+      <c r="S23" s="217"/>
+      <c r="T23" s="218"/>
     </row>
     <row r="24" spans="2:20" ht="30" customHeight="1" thickBot="1">
-      <c r="B24" s="169"/>
-      <c r="C24" s="170"/>
-      <c r="D24" s="170"/>
-      <c r="E24" s="170"/>
-      <c r="F24" s="170"/>
-      <c r="G24" s="170"/>
-      <c r="H24" s="170"/>
-      <c r="I24" s="171"/>
+      <c r="B24" s="228"/>
+      <c r="C24" s="229"/>
+      <c r="D24" s="229"/>
+      <c r="E24" s="229"/>
+      <c r="F24" s="229"/>
+      <c r="G24" s="229"/>
+      <c r="H24" s="229"/>
+      <c r="I24" s="230"/>
       <c r="K24" s="62"/>
       <c r="L24" s="54"/>
       <c r="M24" s="54"/>
@@ -6789,18 +6789,18 @@
       <c r="G32" s="52"/>
       <c r="H32" s="52"/>
       <c r="I32" s="53"/>
-      <c r="K32" s="165" t="s">
+      <c r="K32" s="224" t="s">
         <v>71</v>
       </c>
-      <c r="L32" s="165"/>
-      <c r="M32" s="165"/>
-      <c r="N32" s="165"/>
-      <c r="O32" s="165"/>
-      <c r="P32" s="165"/>
-      <c r="Q32" s="165"/>
-      <c r="R32" s="165"/>
-      <c r="S32" s="165"/>
-      <c r="T32" s="165"/>
+      <c r="L32" s="224"/>
+      <c r="M32" s="224"/>
+      <c r="N32" s="224"/>
+      <c r="O32" s="224"/>
+      <c r="P32" s="224"/>
+      <c r="Q32" s="224"/>
+      <c r="R32" s="224"/>
+      <c r="S32" s="224"/>
+      <c r="T32" s="224"/>
     </row>
     <row r="33" spans="2:20" ht="18.75">
       <c r="B33" s="60"/>
@@ -6811,18 +6811,18 @@
       <c r="G33" s="52"/>
       <c r="H33" s="52"/>
       <c r="I33" s="53"/>
-      <c r="K33" s="165" t="s">
+      <c r="K33" s="224" t="s">
         <v>72</v>
       </c>
-      <c r="L33" s="165"/>
-      <c r="M33" s="165"/>
-      <c r="N33" s="165"/>
-      <c r="O33" s="165"/>
-      <c r="P33" s="165"/>
-      <c r="Q33" s="165"/>
-      <c r="R33" s="165"/>
-      <c r="S33" s="165"/>
-      <c r="T33" s="165"/>
+      <c r="L33" s="224"/>
+      <c r="M33" s="224"/>
+      <c r="N33" s="224"/>
+      <c r="O33" s="224"/>
+      <c r="P33" s="224"/>
+      <c r="Q33" s="224"/>
+      <c r="R33" s="224"/>
+      <c r="S33" s="224"/>
+      <c r="T33" s="224"/>
     </row>
     <row r="34" spans="2:20">
       <c r="B34" s="60"/>
@@ -6882,20 +6882,20 @@
       <c r="G37" s="52"/>
       <c r="H37" s="52"/>
       <c r="I37" s="53"/>
-      <c r="K37" s="220" t="s">
+      <c r="K37" s="132" t="s">
         <v>78</v>
       </c>
-      <c r="L37" s="220" t="s">
+      <c r="L37" s="132" t="s">
         <v>74</v>
       </c>
-      <c r="M37" s="220"/>
-      <c r="N37" s="220"/>
-      <c r="O37" s="220"/>
-      <c r="P37" s="220"/>
-      <c r="Q37" s="220"/>
-      <c r="R37" s="220"/>
-      <c r="S37" s="220"/>
-      <c r="T37" s="220"/>
+      <c r="M37" s="132"/>
+      <c r="N37" s="132"/>
+      <c r="O37" s="132"/>
+      <c r="P37" s="132"/>
+      <c r="Q37" s="132"/>
+      <c r="R37" s="132"/>
+      <c r="S37" s="132"/>
+      <c r="T37" s="132"/>
     </row>
     <row r="38" spans="2:20" ht="30" customHeight="1" thickBot="1">
       <c r="B38" s="79"/>
@@ -6906,21 +6906,21 @@
       <c r="G38" s="54"/>
       <c r="H38" s="54"/>
       <c r="I38" s="55"/>
-      <c r="K38" s="220"/>
-      <c r="L38" s="220" t="s">
+      <c r="K38" s="132"/>
+      <c r="L38" s="132" t="s">
         <v>117</v>
       </c>
-      <c r="M38" s="220"/>
-      <c r="N38" s="220"/>
-      <c r="O38" s="220"/>
-      <c r="P38" s="220" t="str">
+      <c r="M38" s="132"/>
+      <c r="N38" s="132"/>
+      <c r="O38" s="132"/>
+      <c r="P38" s="132" t="str">
         <f>SKP!I5</f>
         <v>Alfian Naufal ,S.Kom</v>
       </c>
-      <c r="Q38" s="220"/>
-      <c r="R38" s="220"/>
-      <c r="S38" s="220"/>
-      <c r="T38" s="220"/>
+      <c r="Q38" s="132"/>
+      <c r="R38" s="132"/>
+      <c r="S38" s="132"/>
+      <c r="T38" s="132"/>
     </row>
     <row r="39" spans="2:20" ht="30" customHeight="1">
       <c r="B39" s="80"/>
@@ -6933,48 +6933,48 @@
       <c r="G39" s="77"/>
       <c r="H39" s="77"/>
       <c r="I39" s="78"/>
-      <c r="K39" s="220"/>
-      <c r="L39" s="220" t="s">
+      <c r="K39" s="132"/>
+      <c r="L39" s="132" t="s">
         <v>118</v>
       </c>
-      <c r="M39" s="220"/>
-      <c r="N39" s="220"/>
-      <c r="O39" s="220"/>
-      <c r="P39" s="220" t="str">
+      <c r="M39" s="132"/>
+      <c r="N39" s="132"/>
+      <c r="O39" s="132"/>
+      <c r="P39" s="132" t="str">
         <f>SKP!I6</f>
         <v>198506072019031011</v>
       </c>
-      <c r="Q39" s="220"/>
-      <c r="R39" s="220"/>
-      <c r="S39" s="220"/>
-      <c r="T39" s="220"/>
+      <c r="Q39" s="132"/>
+      <c r="R39" s="132"/>
+      <c r="S39" s="132"/>
+      <c r="T39" s="132"/>
     </row>
     <row r="40" spans="2:20" ht="30" customHeight="1">
       <c r="B40" s="60"/>
       <c r="C40" s="52"/>
       <c r="D40" s="52"/>
-      <c r="E40" s="154" t="s">
+      <c r="E40" s="222" t="s">
         <v>75</v>
       </c>
-      <c r="F40" s="154"/>
-      <c r="G40" s="154"/>
-      <c r="H40" s="154"/>
-      <c r="I40" s="155"/>
-      <c r="K40" s="220"/>
-      <c r="L40" s="220" t="s">
+      <c r="F40" s="222"/>
+      <c r="G40" s="222"/>
+      <c r="H40" s="222"/>
+      <c r="I40" s="223"/>
+      <c r="K40" s="132"/>
+      <c r="L40" s="132" t="s">
         <v>119</v>
       </c>
-      <c r="M40" s="220"/>
-      <c r="N40" s="220"/>
-      <c r="O40" s="220"/>
-      <c r="P40" s="220" t="str">
+      <c r="M40" s="132"/>
+      <c r="N40" s="132"/>
+      <c r="O40" s="132"/>
+      <c r="P40" s="132" t="str">
         <f>SKP!I7</f>
         <v>Penata Muda /III A</v>
       </c>
-      <c r="Q40" s="220"/>
-      <c r="R40" s="220"/>
-      <c r="S40" s="220"/>
-      <c r="T40" s="220"/>
+      <c r="Q40" s="132"/>
+      <c r="R40" s="132"/>
+      <c r="S40" s="132"/>
+      <c r="T40" s="132"/>
     </row>
     <row r="41" spans="2:20" ht="23.25" customHeight="1">
       <c r="B41" s="60"/>
@@ -6985,76 +6985,76 @@
       <c r="G41" s="52"/>
       <c r="H41" s="52"/>
       <c r="I41" s="53"/>
-      <c r="K41" s="220"/>
-      <c r="L41" s="220" t="s">
+      <c r="K41" s="132"/>
+      <c r="L41" s="132" t="s">
         <v>120</v>
       </c>
-      <c r="M41" s="220"/>
-      <c r="N41" s="220"/>
-      <c r="O41" s="220"/>
-      <c r="P41" s="220" t="str">
+      <c r="M41" s="132"/>
+      <c r="N41" s="132"/>
+      <c r="O41" s="132"/>
+      <c r="P41" s="132" t="str">
         <f>SKP!I8</f>
         <v>Pranata komputer Pertama</v>
       </c>
-      <c r="Q41" s="220"/>
-      <c r="R41" s="220"/>
-      <c r="S41" s="220"/>
-      <c r="T41" s="220"/>
+      <c r="Q41" s="132"/>
+      <c r="R41" s="132"/>
+      <c r="S41" s="132"/>
+      <c r="T41" s="132"/>
     </row>
     <row r="42" spans="2:20" ht="57.75" customHeight="1">
       <c r="B42" s="60"/>
       <c r="C42" s="52"/>
       <c r="D42" s="52"/>
-      <c r="E42" s="156" t="str">
+      <c r="E42" s="233" t="str">
         <f>SKP!D5</f>
         <v>Dra. Imas Maesaroh, Dip.IM-Lib., M.Lib., Ph.D.</v>
       </c>
-      <c r="F42" s="156"/>
-      <c r="G42" s="156"/>
-      <c r="H42" s="156"/>
-      <c r="I42" s="157"/>
-      <c r="K42" s="220"/>
-      <c r="L42" s="220" t="s">
+      <c r="F42" s="233"/>
+      <c r="G42" s="233"/>
+      <c r="H42" s="233"/>
+      <c r="I42" s="234"/>
+      <c r="K42" s="132"/>
+      <c r="L42" s="132" t="s">
         <v>121</v>
       </c>
-      <c r="M42" s="220"/>
-      <c r="N42" s="220"/>
-      <c r="O42" s="220"/>
-      <c r="P42" s="220" t="str">
+      <c r="M42" s="132"/>
+      <c r="N42" s="132"/>
+      <c r="O42" s="132"/>
+      <c r="P42" s="132" t="str">
         <f>SKP!I9</f>
         <v>Pusat Sistem Teknologi Informasi dan Pangkalan Data</v>
       </c>
-      <c r="Q42" s="220"/>
-      <c r="R42" s="220"/>
-      <c r="S42" s="220"/>
-      <c r="T42" s="220"/>
+      <c r="Q42" s="132"/>
+      <c r="R42" s="132"/>
+      <c r="S42" s="132"/>
+      <c r="T42" s="132"/>
     </row>
     <row r="43" spans="2:20" ht="30" customHeight="1">
       <c r="B43" s="60"/>
       <c r="C43" s="52"/>
       <c r="D43" s="52"/>
-      <c r="E43" s="158" t="str">
+      <c r="E43" s="231" t="str">
         <f>SKP!D6</f>
         <v>196605141992032001</v>
       </c>
-      <c r="F43" s="158"/>
-      <c r="G43" s="158"/>
-      <c r="H43" s="158"/>
-      <c r="I43" s="159"/>
-      <c r="K43" s="220" t="s">
+      <c r="F43" s="231"/>
+      <c r="G43" s="231"/>
+      <c r="H43" s="231"/>
+      <c r="I43" s="232"/>
+      <c r="K43" s="132" t="s">
         <v>79</v>
       </c>
-      <c r="L43" s="220" t="s">
+      <c r="L43" s="132" t="s">
         <v>75</v>
       </c>
-      <c r="M43" s="220"/>
-      <c r="N43" s="220"/>
-      <c r="O43" s="220"/>
-      <c r="P43" s="220"/>
-      <c r="Q43" s="220"/>
-      <c r="R43" s="220"/>
-      <c r="S43" s="220"/>
-      <c r="T43" s="220"/>
+      <c r="M43" s="132"/>
+      <c r="N43" s="132"/>
+      <c r="O43" s="132"/>
+      <c r="P43" s="132"/>
+      <c r="Q43" s="132"/>
+      <c r="R43" s="132"/>
+      <c r="S43" s="132"/>
+      <c r="T43" s="132"/>
     </row>
     <row r="44" spans="2:20" ht="30" customHeight="1">
       <c r="B44" s="84" t="s">
@@ -7069,48 +7069,48 @@
       <c r="G44" s="90"/>
       <c r="H44" s="90"/>
       <c r="I44" s="91"/>
-      <c r="K44" s="220"/>
-      <c r="L44" s="220" t="s">
+      <c r="K44" s="132"/>
+      <c r="L44" s="132" t="s">
         <v>117</v>
       </c>
-      <c r="M44" s="220"/>
-      <c r="N44" s="220"/>
-      <c r="O44" s="220"/>
-      <c r="P44" s="220" t="str">
+      <c r="M44" s="132"/>
+      <c r="N44" s="132"/>
+      <c r="O44" s="132"/>
+      <c r="P44" s="132" t="str">
         <f>SKP!D5</f>
         <v>Dra. Imas Maesaroh, Dip.IM-Lib., M.Lib., Ph.D.</v>
       </c>
-      <c r="Q44" s="220"/>
-      <c r="R44" s="220"/>
-      <c r="S44" s="220"/>
-      <c r="T44" s="220"/>
+      <c r="Q44" s="132"/>
+      <c r="R44" s="132"/>
+      <c r="S44" s="132"/>
+      <c r="T44" s="132"/>
     </row>
     <row r="45" spans="2:20" ht="30" customHeight="1">
       <c r="B45" s="84"/>
-      <c r="C45" s="154" t="s">
+      <c r="C45" s="222" t="s">
         <v>86</v>
       </c>
-      <c r="D45" s="154"/>
-      <c r="E45" s="154"/>
+      <c r="D45" s="222"/>
+      <c r="E45" s="222"/>
       <c r="F45" s="52"/>
       <c r="G45" s="52"/>
       <c r="H45" s="52"/>
       <c r="I45" s="53"/>
-      <c r="K45" s="220"/>
-      <c r="L45" s="220" t="s">
+      <c r="K45" s="132"/>
+      <c r="L45" s="132" t="s">
         <v>118</v>
       </c>
-      <c r="M45" s="220"/>
-      <c r="N45" s="220"/>
-      <c r="O45" s="220"/>
-      <c r="P45" s="220" t="str">
+      <c r="M45" s="132"/>
+      <c r="N45" s="132"/>
+      <c r="O45" s="132"/>
+      <c r="P45" s="132" t="str">
         <f>SKP!D6</f>
         <v>196605141992032001</v>
       </c>
-      <c r="Q45" s="220"/>
-      <c r="R45" s="220"/>
-      <c r="S45" s="220"/>
-      <c r="T45" s="220"/>
+      <c r="Q45" s="132"/>
+      <c r="R45" s="132"/>
+      <c r="S45" s="132"/>
+      <c r="T45" s="132"/>
     </row>
     <row r="46" spans="2:20" ht="30" customHeight="1">
       <c r="B46" s="60"/>
@@ -7121,77 +7121,77 @@
       <c r="G46" s="52"/>
       <c r="H46" s="52"/>
       <c r="I46" s="53"/>
-      <c r="K46" s="220"/>
-      <c r="L46" s="220" t="s">
+      <c r="K46" s="132"/>
+      <c r="L46" s="132" t="s">
         <v>119</v>
       </c>
-      <c r="M46" s="220"/>
-      <c r="N46" s="220"/>
-      <c r="O46" s="220"/>
-      <c r="P46" s="220" t="str">
+      <c r="M46" s="132"/>
+      <c r="N46" s="132"/>
+      <c r="O46" s="132"/>
+      <c r="P46" s="132" t="str">
         <f>SKP!D7</f>
         <v>Pembina /IVA</v>
       </c>
-      <c r="Q46" s="220"/>
-      <c r="R46" s="220"/>
-      <c r="S46" s="220"/>
-      <c r="T46" s="220"/>
+      <c r="Q46" s="132"/>
+      <c r="R46" s="132"/>
+      <c r="S46" s="132"/>
+      <c r="T46" s="132"/>
     </row>
     <row r="47" spans="2:20" ht="55.5" customHeight="1">
       <c r="B47" s="60"/>
-      <c r="C47" s="160" t="str">
+      <c r="C47" s="235" t="str">
         <f>SKP!I5</f>
         <v>Alfian Naufal ,S.Kom</v>
       </c>
-      <c r="D47" s="160"/>
-      <c r="E47" s="160"/>
+      <c r="D47" s="235"/>
+      <c r="E47" s="235"/>
       <c r="F47" s="52"/>
       <c r="G47" s="52"/>
       <c r="H47" s="52"/>
       <c r="I47" s="53"/>
-      <c r="K47" s="220"/>
-      <c r="L47" s="220" t="s">
+      <c r="K47" s="132"/>
+      <c r="L47" s="132" t="s">
         <v>120</v>
       </c>
-      <c r="M47" s="220"/>
-      <c r="N47" s="220"/>
-      <c r="O47" s="220"/>
-      <c r="P47" s="220" t="str">
+      <c r="M47" s="132"/>
+      <c r="N47" s="132"/>
+      <c r="O47" s="132"/>
+      <c r="P47" s="132" t="str">
         <f>SKP!D8</f>
         <v>Kepala Pusat Sistem Teknologi Informasi dan Pangkalan Data</v>
       </c>
-      <c r="Q47" s="220"/>
-      <c r="R47" s="220"/>
-      <c r="S47" s="220"/>
-      <c r="T47" s="220"/>
+      <c r="Q47" s="132"/>
+      <c r="R47" s="132"/>
+      <c r="S47" s="132"/>
+      <c r="T47" s="132"/>
     </row>
     <row r="48" spans="2:20" ht="30" customHeight="1">
       <c r="B48" s="60"/>
-      <c r="C48" s="161" t="str">
+      <c r="C48" s="236" t="str">
         <f>SKP!I6</f>
         <v>198506072019031011</v>
       </c>
-      <c r="D48" s="161"/>
-      <c r="E48" s="161"/>
+      <c r="D48" s="236"/>
+      <c r="E48" s="236"/>
       <c r="F48" s="52"/>
       <c r="G48" s="52"/>
       <c r="H48" s="52"/>
       <c r="I48" s="53"/>
-      <c r="K48" s="220"/>
-      <c r="L48" s="220" t="s">
+      <c r="K48" s="132"/>
+      <c r="L48" s="132" t="s">
         <v>121</v>
       </c>
-      <c r="M48" s="220"/>
-      <c r="N48" s="220"/>
-      <c r="O48" s="220"/>
-      <c r="P48" s="220" t="str">
+      <c r="M48" s="132"/>
+      <c r="N48" s="132"/>
+      <c r="O48" s="132"/>
+      <c r="P48" s="132" t="str">
         <f>SKP!D9</f>
         <v>Pusat Sistem Teknologi Informasi dan Pangkalan Data</v>
       </c>
-      <c r="Q48" s="220"/>
-      <c r="R48" s="220"/>
-      <c r="S48" s="220"/>
-      <c r="T48" s="220"/>
+      <c r="Q48" s="132"/>
+      <c r="R48" s="132"/>
+      <c r="S48" s="132"/>
+      <c r="T48" s="132"/>
     </row>
     <row r="49" spans="2:20" ht="30" customHeight="1">
       <c r="B49" s="60"/>
@@ -7204,46 +7204,46 @@
       <c r="G49" s="52"/>
       <c r="H49" s="52"/>
       <c r="I49" s="53"/>
-      <c r="K49" s="220" t="s">
+      <c r="K49" s="132" t="s">
         <v>80</v>
       </c>
-      <c r="L49" s="220" t="s">
+      <c r="L49" s="132" t="s">
         <v>76</v>
       </c>
-      <c r="M49" s="220"/>
-      <c r="N49" s="220"/>
-      <c r="O49" s="220"/>
-      <c r="P49" s="220"/>
-      <c r="Q49" s="220"/>
-      <c r="R49" s="220"/>
-      <c r="S49" s="220"/>
-      <c r="T49" s="220"/>
+      <c r="M49" s="132"/>
+      <c r="N49" s="132"/>
+      <c r="O49" s="132"/>
+      <c r="P49" s="132"/>
+      <c r="Q49" s="132"/>
+      <c r="R49" s="132"/>
+      <c r="S49" s="132"/>
+      <c r="T49" s="132"/>
     </row>
     <row r="50" spans="2:20" ht="30" customHeight="1">
       <c r="B50" s="60"/>
       <c r="C50" s="93"/>
       <c r="D50" s="93"/>
-      <c r="E50" s="154" t="s">
+      <c r="E50" s="222" t="s">
         <v>76</v>
       </c>
-      <c r="F50" s="154"/>
-      <c r="G50" s="154"/>
-      <c r="H50" s="154"/>
-      <c r="I50" s="155"/>
-      <c r="K50" s="220"/>
-      <c r="L50" s="220" t="s">
+      <c r="F50" s="222"/>
+      <c r="G50" s="222"/>
+      <c r="H50" s="222"/>
+      <c r="I50" s="223"/>
+      <c r="K50" s="132"/>
+      <c r="L50" s="132" t="s">
         <v>117</v>
       </c>
-      <c r="M50" s="220"/>
-      <c r="N50" s="220"/>
-      <c r="O50" s="220"/>
-      <c r="P50" s="220" t="s">
+      <c r="M50" s="132"/>
+      <c r="N50" s="132"/>
+      <c r="O50" s="132"/>
+      <c r="P50" s="132" t="s">
         <v>111</v>
       </c>
-      <c r="Q50" s="220"/>
-      <c r="R50" s="220"/>
-      <c r="S50" s="220"/>
-      <c r="T50" s="220"/>
+      <c r="Q50" s="132"/>
+      <c r="R50" s="132"/>
+      <c r="S50" s="132"/>
+      <c r="T50" s="132"/>
     </row>
     <row r="51" spans="2:20" ht="30" customHeight="1">
       <c r="B51" s="60"/>
@@ -7254,74 +7254,74 @@
       <c r="G51" s="52"/>
       <c r="H51" s="52"/>
       <c r="I51" s="53"/>
-      <c r="K51" s="220"/>
-      <c r="L51" s="220" t="s">
+      <c r="K51" s="132"/>
+      <c r="L51" s="132" t="s">
         <v>118</v>
       </c>
-      <c r="M51" s="220"/>
-      <c r="N51" s="220"/>
-      <c r="O51" s="220"/>
-      <c r="P51" s="221" t="s">
+      <c r="M51" s="132"/>
+      <c r="N51" s="132"/>
+      <c r="O51" s="132"/>
+      <c r="P51" s="131" t="s">
         <v>112</v>
       </c>
-      <c r="Q51" s="220"/>
-      <c r="R51" s="220"/>
-      <c r="S51" s="220"/>
-      <c r="T51" s="220"/>
+      <c r="Q51" s="132"/>
+      <c r="R51" s="132"/>
+      <c r="S51" s="132"/>
+      <c r="T51" s="132"/>
     </row>
     <row r="52" spans="2:20" ht="30" customHeight="1">
       <c r="B52" s="60"/>
       <c r="C52" s="52"/>
       <c r="D52" s="52"/>
-      <c r="E52" s="156" t="str">
+      <c r="E52" s="233" t="str">
         <f>P50</f>
         <v>Drs. H. Rijalul Faqih, M.Si</v>
       </c>
-      <c r="F52" s="156"/>
-      <c r="G52" s="156"/>
-      <c r="H52" s="156"/>
-      <c r="I52" s="157"/>
-      <c r="K52" s="220"/>
-      <c r="L52" s="220" t="s">
+      <c r="F52" s="233"/>
+      <c r="G52" s="233"/>
+      <c r="H52" s="233"/>
+      <c r="I52" s="234"/>
+      <c r="K52" s="132"/>
+      <c r="L52" s="132" t="s">
         <v>119</v>
       </c>
-      <c r="M52" s="220"/>
-      <c r="N52" s="220"/>
-      <c r="O52" s="220"/>
-      <c r="P52" s="220" t="s">
+      <c r="M52" s="132"/>
+      <c r="N52" s="132"/>
+      <c r="O52" s="132"/>
+      <c r="P52" s="132" t="s">
         <v>114</v>
       </c>
-      <c r="Q52" s="220"/>
-      <c r="R52" s="220"/>
-      <c r="S52" s="220"/>
-      <c r="T52" s="220"/>
+      <c r="Q52" s="132"/>
+      <c r="R52" s="132"/>
+      <c r="S52" s="132"/>
+      <c r="T52" s="132"/>
     </row>
     <row r="53" spans="2:20" ht="30" customHeight="1">
       <c r="B53" s="60"/>
       <c r="C53" s="52"/>
       <c r="D53" s="52"/>
-      <c r="E53" s="158" t="str">
+      <c r="E53" s="231" t="str">
         <f>P51</f>
         <v>196401151993031002</v>
       </c>
-      <c r="F53" s="158"/>
-      <c r="G53" s="158"/>
-      <c r="H53" s="158"/>
-      <c r="I53" s="159"/>
-      <c r="K53" s="220"/>
-      <c r="L53" s="220" t="s">
+      <c r="F53" s="231"/>
+      <c r="G53" s="231"/>
+      <c r="H53" s="231"/>
+      <c r="I53" s="232"/>
+      <c r="K53" s="132"/>
+      <c r="L53" s="132" t="s">
         <v>120</v>
       </c>
-      <c r="M53" s="220"/>
-      <c r="N53" s="220"/>
-      <c r="O53" s="220"/>
-      <c r="P53" s="220" t="s">
+      <c r="M53" s="132"/>
+      <c r="N53" s="132"/>
+      <c r="O53" s="132"/>
+      <c r="P53" s="132" t="s">
         <v>113</v>
       </c>
-      <c r="Q53" s="220"/>
-      <c r="R53" s="220"/>
-      <c r="S53" s="220"/>
-      <c r="T53" s="220"/>
+      <c r="Q53" s="132"/>
+      <c r="R53" s="132"/>
+      <c r="S53" s="132"/>
+      <c r="T53" s="132"/>
     </row>
     <row r="54" spans="2:20" ht="30" customHeight="1" thickBot="1">
       <c r="B54" s="79"/>
@@ -7332,23 +7332,93 @@
       <c r="G54" s="54"/>
       <c r="H54" s="54"/>
       <c r="I54" s="55"/>
-      <c r="K54" s="220"/>
-      <c r="L54" s="220" t="s">
+      <c r="K54" s="132"/>
+      <c r="L54" s="132" t="s">
         <v>121</v>
       </c>
-      <c r="M54" s="220"/>
-      <c r="N54" s="220"/>
-      <c r="O54" s="220"/>
-      <c r="P54" s="220" t="s">
+      <c r="M54" s="132"/>
+      <c r="N54" s="132"/>
+      <c r="O54" s="132"/>
+      <c r="P54" s="132" t="s">
         <v>110</v>
       </c>
-      <c r="Q54" s="220"/>
-      <c r="R54" s="220"/>
-      <c r="S54" s="220"/>
-      <c r="T54" s="220"/>
+      <c r="Q54" s="132"/>
+      <c r="R54" s="132"/>
+      <c r="S54" s="132"/>
+      <c r="T54" s="132"/>
     </row>
   </sheetData>
   <mergeCells count="86">
+    <mergeCell ref="E50:I50"/>
+    <mergeCell ref="E52:I52"/>
+    <mergeCell ref="E53:I53"/>
+    <mergeCell ref="P38:T38"/>
+    <mergeCell ref="P39:T39"/>
+    <mergeCell ref="P40:T40"/>
+    <mergeCell ref="P41:T41"/>
+    <mergeCell ref="P42:T42"/>
+    <mergeCell ref="P44:T44"/>
+    <mergeCell ref="P45:T45"/>
+    <mergeCell ref="P46:T46"/>
+    <mergeCell ref="P47:T47"/>
+    <mergeCell ref="P48:T48"/>
+    <mergeCell ref="P50:T50"/>
+    <mergeCell ref="P51:T51"/>
+    <mergeCell ref="P52:T52"/>
+    <mergeCell ref="E43:I43"/>
+    <mergeCell ref="E42:I42"/>
+    <mergeCell ref="C45:E45"/>
+    <mergeCell ref="C47:E47"/>
+    <mergeCell ref="C48:E48"/>
+    <mergeCell ref="K49:K54"/>
+    <mergeCell ref="L50:O50"/>
+    <mergeCell ref="L51:O51"/>
+    <mergeCell ref="L52:O52"/>
+    <mergeCell ref="L53:O53"/>
+    <mergeCell ref="L54:O54"/>
+    <mergeCell ref="L49:T49"/>
+    <mergeCell ref="P54:T54"/>
+    <mergeCell ref="P53:T53"/>
+    <mergeCell ref="K43:K48"/>
+    <mergeCell ref="L43:T43"/>
+    <mergeCell ref="L44:O44"/>
+    <mergeCell ref="L45:O45"/>
+    <mergeCell ref="L46:O46"/>
+    <mergeCell ref="L47:O47"/>
+    <mergeCell ref="L48:O48"/>
+    <mergeCell ref="E40:I40"/>
+    <mergeCell ref="B20:I20"/>
+    <mergeCell ref="L40:O40"/>
+    <mergeCell ref="L41:O41"/>
+    <mergeCell ref="L42:O42"/>
+    <mergeCell ref="K32:T32"/>
+    <mergeCell ref="K33:T33"/>
+    <mergeCell ref="K37:K42"/>
+    <mergeCell ref="L37:T37"/>
+    <mergeCell ref="L38:O38"/>
+    <mergeCell ref="L39:O39"/>
+    <mergeCell ref="B21:I21"/>
+    <mergeCell ref="B22:I22"/>
+    <mergeCell ref="B23:I23"/>
+    <mergeCell ref="B24:I24"/>
+    <mergeCell ref="K2:T2"/>
+    <mergeCell ref="K3:T3"/>
+    <mergeCell ref="K11:T11"/>
+    <mergeCell ref="K12:T12"/>
+    <mergeCell ref="K23:T23"/>
+    <mergeCell ref="K10:T10"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="B14:H14"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="G11:H11"/>
     <mergeCell ref="B16:I16"/>
     <mergeCell ref="B17:I17"/>
     <mergeCell ref="B18:I18"/>
@@ -7365,76 +7435,6 @@
     <mergeCell ref="D11:E11"/>
     <mergeCell ref="D12:E12"/>
     <mergeCell ref="B15:I15"/>
-    <mergeCell ref="B14:H14"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="K2:T2"/>
-    <mergeCell ref="K3:T3"/>
-    <mergeCell ref="K11:T11"/>
-    <mergeCell ref="K12:T12"/>
-    <mergeCell ref="K23:T23"/>
-    <mergeCell ref="K10:T10"/>
-    <mergeCell ref="E40:I40"/>
-    <mergeCell ref="B20:I20"/>
-    <mergeCell ref="L40:O40"/>
-    <mergeCell ref="L41:O41"/>
-    <mergeCell ref="L42:O42"/>
-    <mergeCell ref="K32:T32"/>
-    <mergeCell ref="K33:T33"/>
-    <mergeCell ref="K37:K42"/>
-    <mergeCell ref="L37:T37"/>
-    <mergeCell ref="L38:O38"/>
-    <mergeCell ref="L39:O39"/>
-    <mergeCell ref="B21:I21"/>
-    <mergeCell ref="B22:I22"/>
-    <mergeCell ref="B23:I23"/>
-    <mergeCell ref="B24:I24"/>
-    <mergeCell ref="K43:K48"/>
-    <mergeCell ref="L43:T43"/>
-    <mergeCell ref="L44:O44"/>
-    <mergeCell ref="L45:O45"/>
-    <mergeCell ref="L46:O46"/>
-    <mergeCell ref="L47:O47"/>
-    <mergeCell ref="L48:O48"/>
-    <mergeCell ref="K49:K54"/>
-    <mergeCell ref="L50:O50"/>
-    <mergeCell ref="L51:O51"/>
-    <mergeCell ref="L52:O52"/>
-    <mergeCell ref="L53:O53"/>
-    <mergeCell ref="L54:O54"/>
-    <mergeCell ref="L49:T49"/>
-    <mergeCell ref="P54:T54"/>
-    <mergeCell ref="P53:T53"/>
-    <mergeCell ref="E43:I43"/>
-    <mergeCell ref="E42:I42"/>
-    <mergeCell ref="C45:E45"/>
-    <mergeCell ref="C47:E47"/>
-    <mergeCell ref="C48:E48"/>
-    <mergeCell ref="E50:I50"/>
-    <mergeCell ref="E52:I52"/>
-    <mergeCell ref="E53:I53"/>
-    <mergeCell ref="P38:T38"/>
-    <mergeCell ref="P39:T39"/>
-    <mergeCell ref="P40:T40"/>
-    <mergeCell ref="P41:T41"/>
-    <mergeCell ref="P42:T42"/>
-    <mergeCell ref="P44:T44"/>
-    <mergeCell ref="P45:T45"/>
-    <mergeCell ref="P46:T46"/>
-    <mergeCell ref="P47:T47"/>
-    <mergeCell ref="P48:T48"/>
-    <mergeCell ref="P50:T50"/>
-    <mergeCell ref="P51:T51"/>
-    <mergeCell ref="P52:T52"/>
   </mergeCells>
   <pageMargins left="0.47244094488188981" right="0.19685039370078741" top="0.53" bottom="0.6" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="70" orientation="landscape" r:id="rId1"/>
